--- a/application/file/전화번호.xlsx
+++ b/application/file/전화번호.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\헬라\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B98537-6229-4CB3-BAD8-86B3A81CA83C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F2EB05-749A-4ADB-BF34-F9936D7B7D0D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{288EAA05-7E45-449B-8F72-2F12A5F6488A}"/>
+    <workbookView xWindow="37695" yWindow="3555" windowWidth="19065" windowHeight="11385" xr2:uid="{288EAA05-7E45-449B-8F72-2F12A5F6488A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -402,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95263A43-4831-48B8-A29D-3FEAAFD8761D}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B1061"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A1052" workbookViewId="0">
+      <selection activeCell="L1332" sqref="K1329:L1332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -437,76 +437,8468 @@
         <v>1011111112</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1011111113</v>
+      </c>
+    </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>1011111113</v>
+        <v>1011111114</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>1011111114</v>
+        <v>1011111115</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>1011111115</v>
+        <v>1011111116</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>1011111116</v>
+        <v>1011111117</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>1011111117</v>
+        <v>1011111118</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>1011111118</v>
+        <v>1011111119</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>1011111119</v>
+        <v>1011111120</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>1011111120</v>
+        <v>1011111121</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>1011111120</v>
+        <v>1011111122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1011111123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1011111124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>1011111125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>1011111126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>1011111127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>1011111128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>1011111129</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>1011111130</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>1011111131</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>1011111132</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>1011111133</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>1011111134</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>1011111135</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>1011111136</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>1011111137</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>1011111138</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>1011111139</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>1011111140</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>1011111141</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>1011111142</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>1011111143</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>1011111144</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>1011111145</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>1011111146</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>1011111147</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>1011111148</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>1011111149</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>1011111150</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>1011111151</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>1011111152</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>1011111153</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>1011111154</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>1011111155</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>1011111156</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>1011111157</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>1011111158</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>1011111159</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>1011111160</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>1011111161</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>1011111162</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>1011111163</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>1011111164</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>1011111165</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>1011111166</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>1011111167</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>1011111168</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>1011111169</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>1011111170</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>1011111171</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>1011111172</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>1011111173</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>1011111174</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>1011111175</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>1011111176</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>1011111177</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>1011111178</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>1011111179</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>1011111180</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>1011111181</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>1011111182</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>1011111183</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>1011111184</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>1011111185</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>1011111186</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>1011111187</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>1011111188</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>1011111189</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>1011111190</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>1011111191</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>1011111192</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>1011111193</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>1011111194</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>1011111195</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>1011111196</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>1011111197</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>1011111198</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>1011111199</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>1011111200</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>1011111201</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>1011111202</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>1011111203</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>1011111204</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>1011111205</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>1011111206</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>1011111207</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>1011111208</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>1011111209</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>1011111210</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>1011111211</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>1011111212</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>1011111213</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>1011111214</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>1011111215</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>1011111216</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>1011111217</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>1011111218</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>1011111219</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>1011111220</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>1011111221</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>1011111222</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>1011111223</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>1011111224</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>1011111225</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>1011111226</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>1011111227</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>1011111228</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>1011111229</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>1011111230</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>1011111231</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>1011111232</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>1011111233</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>1011111234</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>1011111235</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>1011111236</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>1011111237</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>1011111238</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>1011111239</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>1011111240</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>1011111241</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>1011111242</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>1011111243</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>1011111244</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>1011111245</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>1011111246</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>1011111247</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>1011111248</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>1011111249</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>1011111250</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>1011111251</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>1011111252</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>1011111253</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>1011111254</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>1011111255</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>1011111256</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>1011111257</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>1011111258</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>1011111259</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>1011111260</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>1011111261</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>1011111262</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>1011111263</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>1011111264</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>1011111265</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>1011111266</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>1011111267</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>1011111268</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>1011111269</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>1011111270</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>1011111271</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>1011111272</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>1011111273</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>1011111274</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>1011111275</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>1011111276</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>1011111277</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>1011111278</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>1011111279</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>1011111280</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>1011111281</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>1011111282</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>1011111283</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>1011111284</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>1011111285</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>1011111286</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>1011111287</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>1011111288</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>1011111289</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>1011111290</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>1011111291</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>1011111292</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>1011111293</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>1011111294</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>1011111295</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="B187">
+        <v>1011111296</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="B188">
+        <v>1011111297</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>188</v>
+      </c>
+      <c r="B189">
+        <v>1011111298</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>189</v>
+      </c>
+      <c r="B190">
+        <v>1011111299</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>190</v>
+      </c>
+      <c r="B191">
+        <v>1011111300</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>191</v>
+      </c>
+      <c r="B192">
+        <v>1011111301</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>192</v>
+      </c>
+      <c r="B193">
+        <v>1011111302</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>193</v>
+      </c>
+      <c r="B194">
+        <v>1011111303</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>194</v>
+      </c>
+      <c r="B195">
+        <v>1011111304</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>195</v>
+      </c>
+      <c r="B196">
+        <v>1011111305</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>196</v>
+      </c>
+      <c r="B197">
+        <v>1011111306</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>197</v>
+      </c>
+      <c r="B198">
+        <v>1011111307</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>198</v>
+      </c>
+      <c r="B199">
+        <v>1011111308</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>199</v>
+      </c>
+      <c r="B200">
+        <v>1011111309</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>200</v>
+      </c>
+      <c r="B201">
+        <v>1011111310</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>201</v>
+      </c>
+      <c r="B202">
+        <v>1011111311</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>202</v>
+      </c>
+      <c r="B203">
+        <v>1011111312</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>203</v>
+      </c>
+      <c r="B204">
+        <v>1011111313</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>204</v>
+      </c>
+      <c r="B205">
+        <v>1011111314</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>205</v>
+      </c>
+      <c r="B206">
+        <v>1011111315</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>206</v>
+      </c>
+      <c r="B207">
+        <v>1011111316</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>207</v>
+      </c>
+      <c r="B208">
+        <v>1011111317</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>208</v>
+      </c>
+      <c r="B209">
+        <v>1011111318</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>209</v>
+      </c>
+      <c r="B210">
+        <v>1011111319</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>210</v>
+      </c>
+      <c r="B211">
+        <v>1011111320</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>211</v>
+      </c>
+      <c r="B212">
+        <v>1011111321</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>212</v>
+      </c>
+      <c r="B213">
+        <v>1011111322</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>213</v>
+      </c>
+      <c r="B214">
+        <v>1011111323</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>214</v>
+      </c>
+      <c r="B215">
+        <v>1011111324</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>215</v>
+      </c>
+      <c r="B216">
+        <v>1011111325</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>216</v>
+      </c>
+      <c r="B217">
+        <v>1011111326</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <v>217</v>
+      </c>
+      <c r="B218">
+        <v>1011111327</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>218</v>
+      </c>
+      <c r="B219">
+        <v>1011111328</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <v>219</v>
+      </c>
+      <c r="B220">
+        <v>1011111329</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <v>220</v>
+      </c>
+      <c r="B221">
+        <v>1011111330</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222">
+        <v>221</v>
+      </c>
+      <c r="B222">
+        <v>1011111331</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223">
+        <v>222</v>
+      </c>
+      <c r="B223">
+        <v>1011111332</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224">
+        <v>223</v>
+      </c>
+      <c r="B224">
+        <v>1011111333</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225">
+        <v>224</v>
+      </c>
+      <c r="B225">
+        <v>1011111334</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <v>225</v>
+      </c>
+      <c r="B226">
+        <v>1011111335</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>226</v>
+      </c>
+      <c r="B227">
+        <v>1011111336</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A228">
+        <v>227</v>
+      </c>
+      <c r="B228">
+        <v>1011111337</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <v>228</v>
+      </c>
+      <c r="B229">
+        <v>1011111338</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230">
+        <v>229</v>
+      </c>
+      <c r="B230">
+        <v>1011111339</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231">
+        <v>230</v>
+      </c>
+      <c r="B231">
+        <v>1011111340</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A232">
+        <v>231</v>
+      </c>
+      <c r="B232">
+        <v>1011111341</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A233">
+        <v>232</v>
+      </c>
+      <c r="B233">
+        <v>1011111342</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A234">
+        <v>233</v>
+      </c>
+      <c r="B234">
+        <v>1011111343</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235">
+        <v>234</v>
+      </c>
+      <c r="B235">
+        <v>1011111344</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A236">
+        <v>235</v>
+      </c>
+      <c r="B236">
+        <v>1011111345</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A237">
+        <v>236</v>
+      </c>
+      <c r="B237">
+        <v>1011111346</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A238">
+        <v>237</v>
+      </c>
+      <c r="B238">
+        <v>1011111347</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <v>238</v>
+      </c>
+      <c r="B239">
+        <v>1011111348</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A240">
+        <v>239</v>
+      </c>
+      <c r="B240">
+        <v>1011111349</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <v>240</v>
+      </c>
+      <c r="B241">
+        <v>1011111350</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A242">
+        <v>241</v>
+      </c>
+      <c r="B242">
+        <v>1011111351</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A243">
+        <v>242</v>
+      </c>
+      <c r="B243">
+        <v>1011111352</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A244">
+        <v>243</v>
+      </c>
+      <c r="B244">
+        <v>1011111353</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245">
+        <v>244</v>
+      </c>
+      <c r="B245">
+        <v>1011111354</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A246">
+        <v>245</v>
+      </c>
+      <c r="B246">
+        <v>1011111355</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A247">
+        <v>246</v>
+      </c>
+      <c r="B247">
+        <v>1011111356</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A248">
+        <v>247</v>
+      </c>
+      <c r="B248">
+        <v>1011111357</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A249">
+        <v>248</v>
+      </c>
+      <c r="B249">
+        <v>1011111358</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A250">
+        <v>249</v>
+      </c>
+      <c r="B250">
+        <v>1011111359</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A251">
+        <v>250</v>
+      </c>
+      <c r="B251">
+        <v>1011111360</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A252">
+        <v>251</v>
+      </c>
+      <c r="B252">
+        <v>1011111361</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A253">
+        <v>252</v>
+      </c>
+      <c r="B253">
+        <v>1011111362</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A254">
+        <v>253</v>
+      </c>
+      <c r="B254">
+        <v>1011111363</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A255">
+        <v>254</v>
+      </c>
+      <c r="B255">
+        <v>1011111364</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A256">
+        <v>255</v>
+      </c>
+      <c r="B256">
+        <v>1011111365</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A257">
+        <v>256</v>
+      </c>
+      <c r="B257">
+        <v>1011111366</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A258">
+        <v>257</v>
+      </c>
+      <c r="B258">
+        <v>1011111367</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A259">
+        <v>258</v>
+      </c>
+      <c r="B259">
+        <v>1011111368</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A260">
+        <v>259</v>
+      </c>
+      <c r="B260">
+        <v>1011111369</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A261">
+        <v>260</v>
+      </c>
+      <c r="B261">
+        <v>1011111370</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A262">
+        <v>261</v>
+      </c>
+      <c r="B262">
+        <v>1011111371</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A263">
+        <v>262</v>
+      </c>
+      <c r="B263">
+        <v>1011111372</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A264">
+        <v>263</v>
+      </c>
+      <c r="B264">
+        <v>1011111373</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A265">
+        <v>264</v>
+      </c>
+      <c r="B265">
+        <v>1011111374</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A266">
+        <v>265</v>
+      </c>
+      <c r="B266">
+        <v>1011111375</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A267">
+        <v>266</v>
+      </c>
+      <c r="B267">
+        <v>1011111376</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A268">
+        <v>267</v>
+      </c>
+      <c r="B268">
+        <v>1011111377</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A269">
+        <v>268</v>
+      </c>
+      <c r="B269">
+        <v>1011111378</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A270">
+        <v>269</v>
+      </c>
+      <c r="B270">
+        <v>1011111379</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A271">
+        <v>270</v>
+      </c>
+      <c r="B271">
+        <v>1011111380</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A272">
+        <v>271</v>
+      </c>
+      <c r="B272">
+        <v>1011111381</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A273">
+        <v>272</v>
+      </c>
+      <c r="B273">
+        <v>1011111382</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A274">
+        <v>273</v>
+      </c>
+      <c r="B274">
+        <v>1011111383</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A275">
+        <v>274</v>
+      </c>
+      <c r="B275">
+        <v>1011111384</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A276">
+        <v>275</v>
+      </c>
+      <c r="B276">
+        <v>1011111385</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A277">
+        <v>276</v>
+      </c>
+      <c r="B277">
+        <v>1011111386</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A278">
+        <v>277</v>
+      </c>
+      <c r="B278">
+        <v>1011111387</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A279">
+        <v>278</v>
+      </c>
+      <c r="B279">
+        <v>1011111388</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A280">
+        <v>279</v>
+      </c>
+      <c r="B280">
+        <v>1011111389</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A281">
+        <v>280</v>
+      </c>
+      <c r="B281">
+        <v>1011111390</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A282">
+        <v>281</v>
+      </c>
+      <c r="B282">
+        <v>1011111391</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A283">
+        <v>282</v>
+      </c>
+      <c r="B283">
+        <v>1011111392</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A284">
+        <v>283</v>
+      </c>
+      <c r="B284">
+        <v>1011111393</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A285">
+        <v>284</v>
+      </c>
+      <c r="B285">
+        <v>1011111394</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A286">
+        <v>285</v>
+      </c>
+      <c r="B286">
+        <v>1011111395</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A287">
+        <v>286</v>
+      </c>
+      <c r="B287">
+        <v>1011111396</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A288">
+        <v>287</v>
+      </c>
+      <c r="B288">
+        <v>1011111397</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A289">
+        <v>288</v>
+      </c>
+      <c r="B289">
+        <v>1011111398</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A290">
+        <v>289</v>
+      </c>
+      <c r="B290">
+        <v>1011111399</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A291">
+        <v>290</v>
+      </c>
+      <c r="B291">
+        <v>1011111400</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A292">
+        <v>291</v>
+      </c>
+      <c r="B292">
+        <v>1011111401</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A293">
+        <v>292</v>
+      </c>
+      <c r="B293">
+        <v>1011111402</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A294">
+        <v>293</v>
+      </c>
+      <c r="B294">
+        <v>1011111403</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A295">
+        <v>294</v>
+      </c>
+      <c r="B295">
+        <v>1011111404</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A296">
+        <v>295</v>
+      </c>
+      <c r="B296">
+        <v>1011111405</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A297">
+        <v>296</v>
+      </c>
+      <c r="B297">
+        <v>1011111406</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A298">
+        <v>297</v>
+      </c>
+      <c r="B298">
+        <v>1011111407</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A299">
+        <v>298</v>
+      </c>
+      <c r="B299">
+        <v>1011111408</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A300">
+        <v>299</v>
+      </c>
+      <c r="B300">
+        <v>1011111409</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A301">
+        <v>300</v>
+      </c>
+      <c r="B301">
+        <v>1011111410</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A302">
+        <v>301</v>
+      </c>
+      <c r="B302">
+        <v>1011111411</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A303">
+        <v>302</v>
+      </c>
+      <c r="B303">
+        <v>1011111412</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A304">
+        <v>303</v>
+      </c>
+      <c r="B304">
+        <v>1011111413</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A305">
+        <v>304</v>
+      </c>
+      <c r="B305">
+        <v>1011111414</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A306">
+        <v>305</v>
+      </c>
+      <c r="B306">
+        <v>1011111415</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A307">
+        <v>306</v>
+      </c>
+      <c r="B307">
+        <v>1011111416</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A308">
+        <v>307</v>
+      </c>
+      <c r="B308">
+        <v>1011111417</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A309">
+        <v>308</v>
+      </c>
+      <c r="B309">
+        <v>1011111418</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A310">
+        <v>309</v>
+      </c>
+      <c r="B310">
+        <v>1011111419</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A311">
+        <v>310</v>
+      </c>
+      <c r="B311">
+        <v>1011111420</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A312">
+        <v>311</v>
+      </c>
+      <c r="B312">
+        <v>1011111421</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A313">
+        <v>312</v>
+      </c>
+      <c r="B313">
+        <v>1011111422</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A314">
+        <v>313</v>
+      </c>
+      <c r="B314">
+        <v>1011111423</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A315">
+        <v>314</v>
+      </c>
+      <c r="B315">
+        <v>1011111424</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A316">
+        <v>315</v>
+      </c>
+      <c r="B316">
+        <v>1011111425</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A317">
+        <v>316</v>
+      </c>
+      <c r="B317">
+        <v>1011111426</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A318">
+        <v>317</v>
+      </c>
+      <c r="B318">
+        <v>1011111427</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A319">
+        <v>318</v>
+      </c>
+      <c r="B319">
+        <v>1011111428</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A320">
+        <v>319</v>
+      </c>
+      <c r="B320">
+        <v>1011111429</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A321">
+        <v>320</v>
+      </c>
+      <c r="B321">
+        <v>1011111430</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A322">
+        <v>321</v>
+      </c>
+      <c r="B322">
+        <v>1011111431</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A323">
+        <v>322</v>
+      </c>
+      <c r="B323">
+        <v>1011111432</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A324">
+        <v>323</v>
+      </c>
+      <c r="B324">
+        <v>1011111433</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A325">
+        <v>324</v>
+      </c>
+      <c r="B325">
+        <v>1011111434</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A326">
+        <v>325</v>
+      </c>
+      <c r="B326">
+        <v>1011111435</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A327">
+        <v>326</v>
+      </c>
+      <c r="B327">
+        <v>1011111436</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A328">
+        <v>327</v>
+      </c>
+      <c r="B328">
+        <v>1011111437</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A329">
+        <v>328</v>
+      </c>
+      <c r="B329">
+        <v>1011111438</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A330">
+        <v>329</v>
+      </c>
+      <c r="B330">
+        <v>1011111439</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A331">
+        <v>330</v>
+      </c>
+      <c r="B331">
+        <v>1011111440</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A332">
+        <v>331</v>
+      </c>
+      <c r="B332">
+        <v>1011111441</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A333">
+        <v>332</v>
+      </c>
+      <c r="B333">
+        <v>1011111442</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A334">
+        <v>333</v>
+      </c>
+      <c r="B334">
+        <v>1011111443</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A335">
+        <v>334</v>
+      </c>
+      <c r="B335">
+        <v>1011111444</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A336">
+        <v>335</v>
+      </c>
+      <c r="B336">
+        <v>1011111445</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A337">
+        <v>336</v>
+      </c>
+      <c r="B337">
+        <v>1011111446</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A338">
+        <v>337</v>
+      </c>
+      <c r="B338">
+        <v>1011111447</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A339">
+        <v>338</v>
+      </c>
+      <c r="B339">
+        <v>1011111448</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A340">
+        <v>339</v>
+      </c>
+      <c r="B340">
+        <v>1011111449</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A341">
+        <v>340</v>
+      </c>
+      <c r="B341">
+        <v>1011111450</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A342">
+        <v>341</v>
+      </c>
+      <c r="B342">
+        <v>1011111451</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A343">
+        <v>342</v>
+      </c>
+      <c r="B343">
+        <v>1011111452</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A344">
+        <v>343</v>
+      </c>
+      <c r="B344">
+        <v>1011111453</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A345">
+        <v>344</v>
+      </c>
+      <c r="B345">
+        <v>1011111454</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A346">
+        <v>345</v>
+      </c>
+      <c r="B346">
+        <v>1011111455</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A347">
+        <v>346</v>
+      </c>
+      <c r="B347">
+        <v>1011111456</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A348">
+        <v>347</v>
+      </c>
+      <c r="B348">
+        <v>1011111457</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A349">
+        <v>348</v>
+      </c>
+      <c r="B349">
+        <v>1011111458</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A350">
+        <v>349</v>
+      </c>
+      <c r="B350">
+        <v>1011111459</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A351">
+        <v>350</v>
+      </c>
+      <c r="B351">
+        <v>1011111460</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A352">
+        <v>351</v>
+      </c>
+      <c r="B352">
+        <v>1011111461</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A353">
+        <v>352</v>
+      </c>
+      <c r="B353">
+        <v>1011111462</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A354">
+        <v>353</v>
+      </c>
+      <c r="B354">
+        <v>1011111463</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A355">
+        <v>354</v>
+      </c>
+      <c r="B355">
+        <v>1011111464</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A356">
+        <v>355</v>
+      </c>
+      <c r="B356">
+        <v>1011111465</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A357">
+        <v>356</v>
+      </c>
+      <c r="B357">
+        <v>1011111466</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A358">
+        <v>357</v>
+      </c>
+      <c r="B358">
+        <v>1011111467</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A359">
+        <v>358</v>
+      </c>
+      <c r="B359">
+        <v>1011111468</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A360">
+        <v>359</v>
+      </c>
+      <c r="B360">
+        <v>1011111469</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A361">
+        <v>360</v>
+      </c>
+      <c r="B361">
+        <v>1011111470</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A362">
+        <v>361</v>
+      </c>
+      <c r="B362">
+        <v>1011111471</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A363">
+        <v>362</v>
+      </c>
+      <c r="B363">
+        <v>1011111472</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A364">
+        <v>363</v>
+      </c>
+      <c r="B364">
+        <v>1011111473</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A365">
+        <v>364</v>
+      </c>
+      <c r="B365">
+        <v>1011111474</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A366">
+        <v>365</v>
+      </c>
+      <c r="B366">
+        <v>1011111475</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A367">
+        <v>366</v>
+      </c>
+      <c r="B367">
+        <v>1011111476</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A368">
+        <v>367</v>
+      </c>
+      <c r="B368">
+        <v>1011111477</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A369">
+        <v>368</v>
+      </c>
+      <c r="B369">
+        <v>1011111478</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A370">
+        <v>369</v>
+      </c>
+      <c r="B370">
+        <v>1011111479</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A371">
+        <v>370</v>
+      </c>
+      <c r="B371">
+        <v>1011111480</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A372">
+        <v>371</v>
+      </c>
+      <c r="B372">
+        <v>1011111481</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A373">
+        <v>372</v>
+      </c>
+      <c r="B373">
+        <v>1011111482</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A374">
+        <v>373</v>
+      </c>
+      <c r="B374">
+        <v>1011111483</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A375">
+        <v>374</v>
+      </c>
+      <c r="B375">
+        <v>1011111484</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A376">
+        <v>375</v>
+      </c>
+      <c r="B376">
+        <v>1011111485</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A377">
+        <v>376</v>
+      </c>
+      <c r="B377">
+        <v>1011111486</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A378">
+        <v>377</v>
+      </c>
+      <c r="B378">
+        <v>1011111487</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A379">
+        <v>378</v>
+      </c>
+      <c r="B379">
+        <v>1011111488</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A380">
+        <v>379</v>
+      </c>
+      <c r="B380">
+        <v>1011111489</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A381">
+        <v>380</v>
+      </c>
+      <c r="B381">
+        <v>1011111490</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A382">
+        <v>381</v>
+      </c>
+      <c r="B382">
+        <v>1011111491</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A383">
+        <v>382</v>
+      </c>
+      <c r="B383">
+        <v>1011111492</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A384">
+        <v>383</v>
+      </c>
+      <c r="B384">
+        <v>1011111493</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A385">
+        <v>384</v>
+      </c>
+      <c r="B385">
+        <v>1011111494</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A386">
+        <v>385</v>
+      </c>
+      <c r="B386">
+        <v>1011111495</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A387">
+        <v>386</v>
+      </c>
+      <c r="B387">
+        <v>1011111496</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A388">
+        <v>387</v>
+      </c>
+      <c r="B388">
+        <v>1011111497</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A389">
+        <v>388</v>
+      </c>
+      <c r="B389">
+        <v>1011111498</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A390">
+        <v>389</v>
+      </c>
+      <c r="B390">
+        <v>1011111499</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A391">
+        <v>390</v>
+      </c>
+      <c r="B391">
+        <v>1011111500</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A392">
+        <v>391</v>
+      </c>
+      <c r="B392">
+        <v>1011111501</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A393">
+        <v>392</v>
+      </c>
+      <c r="B393">
+        <v>1011111502</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A394">
+        <v>393</v>
+      </c>
+      <c r="B394">
+        <v>1011111503</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A395">
+        <v>394</v>
+      </c>
+      <c r="B395">
+        <v>1011111504</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A396">
+        <v>395</v>
+      </c>
+      <c r="B396">
+        <v>1011111505</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A397">
+        <v>396</v>
+      </c>
+      <c r="B397">
+        <v>1011111506</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A398">
+        <v>397</v>
+      </c>
+      <c r="B398">
+        <v>1011111507</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A399">
+        <v>398</v>
+      </c>
+      <c r="B399">
+        <v>1011111508</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A400">
+        <v>399</v>
+      </c>
+      <c r="B400">
+        <v>1011111509</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A401">
+        <v>400</v>
+      </c>
+      <c r="B401">
+        <v>1011111510</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A402">
+        <v>401</v>
+      </c>
+      <c r="B402">
+        <v>1011111511</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A403">
+        <v>402</v>
+      </c>
+      <c r="B403">
+        <v>1011111512</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A404">
+        <v>403</v>
+      </c>
+      <c r="B404">
+        <v>1011111513</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A405">
+        <v>404</v>
+      </c>
+      <c r="B405">
+        <v>1011111514</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A406">
+        <v>405</v>
+      </c>
+      <c r="B406">
+        <v>1011111515</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A407">
+        <v>406</v>
+      </c>
+      <c r="B407">
+        <v>1011111516</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A408">
+        <v>407</v>
+      </c>
+      <c r="B408">
+        <v>1011111517</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A409">
+        <v>408</v>
+      </c>
+      <c r="B409">
+        <v>1011111518</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A410">
+        <v>409</v>
+      </c>
+      <c r="B410">
+        <v>1011111519</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A411">
+        <v>410</v>
+      </c>
+      <c r="B411">
+        <v>1011111520</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A412">
+        <v>411</v>
+      </c>
+      <c r="B412">
+        <v>1011111521</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A413">
+        <v>412</v>
+      </c>
+      <c r="B413">
+        <v>1011111522</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A414">
+        <v>413</v>
+      </c>
+      <c r="B414">
+        <v>1011111523</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A415">
+        <v>414</v>
+      </c>
+      <c r="B415">
+        <v>1011111524</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A416">
+        <v>415</v>
+      </c>
+      <c r="B416">
+        <v>1011111525</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A417">
+        <v>416</v>
+      </c>
+      <c r="B417">
+        <v>1011111526</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A418">
+        <v>417</v>
+      </c>
+      <c r="B418">
+        <v>1011111527</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A419">
+        <v>418</v>
+      </c>
+      <c r="B419">
+        <v>1011111528</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A420">
+        <v>419</v>
+      </c>
+      <c r="B420">
+        <v>1011111529</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A421">
+        <v>420</v>
+      </c>
+      <c r="B421">
+        <v>1011111530</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A422">
+        <v>421</v>
+      </c>
+      <c r="B422">
+        <v>1011111531</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A423">
+        <v>422</v>
+      </c>
+      <c r="B423">
+        <v>1011111532</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A424">
+        <v>423</v>
+      </c>
+      <c r="B424">
+        <v>1011111533</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A425">
+        <v>424</v>
+      </c>
+      <c r="B425">
+        <v>1011111534</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A426">
+        <v>425</v>
+      </c>
+      <c r="B426">
+        <v>1011111535</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A427">
+        <v>426</v>
+      </c>
+      <c r="B427">
+        <v>1011111536</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A428">
+        <v>427</v>
+      </c>
+      <c r="B428">
+        <v>1011111537</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A429">
+        <v>428</v>
+      </c>
+      <c r="B429">
+        <v>1011111538</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A430">
+        <v>429</v>
+      </c>
+      <c r="B430">
+        <v>1011111539</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A431">
+        <v>430</v>
+      </c>
+      <c r="B431">
+        <v>1011111540</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A432">
+        <v>431</v>
+      </c>
+      <c r="B432">
+        <v>1011111541</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A433">
+        <v>432</v>
+      </c>
+      <c r="B433">
+        <v>1011111542</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A434">
+        <v>433</v>
+      </c>
+      <c r="B434">
+        <v>1011111543</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A435">
+        <v>434</v>
+      </c>
+      <c r="B435">
+        <v>1011111544</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A436">
+        <v>435</v>
+      </c>
+      <c r="B436">
+        <v>1011111545</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A437">
+        <v>436</v>
+      </c>
+      <c r="B437">
+        <v>1011111546</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A438">
+        <v>437</v>
+      </c>
+      <c r="B438">
+        <v>1011111547</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A439">
+        <v>438</v>
+      </c>
+      <c r="B439">
+        <v>1011111548</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A440">
+        <v>439</v>
+      </c>
+      <c r="B440">
+        <v>1011111549</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A441">
+        <v>440</v>
+      </c>
+      <c r="B441">
+        <v>1011111550</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A442">
+        <v>441</v>
+      </c>
+      <c r="B442">
+        <v>1011111551</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A443">
+        <v>442</v>
+      </c>
+      <c r="B443">
+        <v>1011111552</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A444">
+        <v>443</v>
+      </c>
+      <c r="B444">
+        <v>1011111553</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A445">
+        <v>444</v>
+      </c>
+      <c r="B445">
+        <v>1011111554</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A446">
+        <v>445</v>
+      </c>
+      <c r="B446">
+        <v>1011111555</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A447">
+        <v>446</v>
+      </c>
+      <c r="B447">
+        <v>1011111556</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A448">
+        <v>447</v>
+      </c>
+      <c r="B448">
+        <v>1011111557</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A449">
+        <v>448</v>
+      </c>
+      <c r="B449">
+        <v>1011111558</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A450">
+        <v>449</v>
+      </c>
+      <c r="B450">
+        <v>1011111559</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A451">
+        <v>450</v>
+      </c>
+      <c r="B451">
+        <v>1011111560</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A452">
+        <v>451</v>
+      </c>
+      <c r="B452">
+        <v>1011111561</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A453">
+        <v>452</v>
+      </c>
+      <c r="B453">
+        <v>1011111562</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A454">
+        <v>453</v>
+      </c>
+      <c r="B454">
+        <v>1011111563</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A455">
+        <v>454</v>
+      </c>
+      <c r="B455">
+        <v>1011111564</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A456">
+        <v>455</v>
+      </c>
+      <c r="B456">
+        <v>1011111565</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A457">
+        <v>456</v>
+      </c>
+      <c r="B457">
+        <v>1011111566</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A458">
+        <v>457</v>
+      </c>
+      <c r="B458">
+        <v>1011111567</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A459">
+        <v>458</v>
+      </c>
+      <c r="B459">
+        <v>1011111568</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A460">
+        <v>459</v>
+      </c>
+      <c r="B460">
+        <v>1011111569</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A461">
+        <v>460</v>
+      </c>
+      <c r="B461">
+        <v>1011111570</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A462">
+        <v>461</v>
+      </c>
+      <c r="B462">
+        <v>1011111571</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A463">
+        <v>462</v>
+      </c>
+      <c r="B463">
+        <v>1011111572</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A464">
+        <v>463</v>
+      </c>
+      <c r="B464">
+        <v>1011111573</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A465">
+        <v>464</v>
+      </c>
+      <c r="B465">
+        <v>1011111574</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A466">
+        <v>465</v>
+      </c>
+      <c r="B466">
+        <v>1011111575</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A467">
+        <v>466</v>
+      </c>
+      <c r="B467">
+        <v>1011111576</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A468">
+        <v>467</v>
+      </c>
+      <c r="B468">
+        <v>1011111577</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A469">
+        <v>468</v>
+      </c>
+      <c r="B469">
+        <v>1011111578</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A470">
+        <v>469</v>
+      </c>
+      <c r="B470">
+        <v>1011111579</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A471">
+        <v>470</v>
+      </c>
+      <c r="B471">
+        <v>1011111580</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A472">
+        <v>471</v>
+      </c>
+      <c r="B472">
+        <v>1011111581</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A473">
+        <v>472</v>
+      </c>
+      <c r="B473">
+        <v>1011111582</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A474">
+        <v>473</v>
+      </c>
+      <c r="B474">
+        <v>1011111583</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A475">
+        <v>474</v>
+      </c>
+      <c r="B475">
+        <v>1011111584</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A476">
+        <v>475</v>
+      </c>
+      <c r="B476">
+        <v>1011111585</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A477">
+        <v>476</v>
+      </c>
+      <c r="B477">
+        <v>1011111586</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A478">
+        <v>477</v>
+      </c>
+      <c r="B478">
+        <v>1011111587</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A479">
+        <v>478</v>
+      </c>
+      <c r="B479">
+        <v>1011111588</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A480">
+        <v>479</v>
+      </c>
+      <c r="B480">
+        <v>1011111589</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A481">
+        <v>480</v>
+      </c>
+      <c r="B481">
+        <v>1011111590</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A482">
+        <v>481</v>
+      </c>
+      <c r="B482">
+        <v>1011111591</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A483">
+        <v>482</v>
+      </c>
+      <c r="B483">
+        <v>1011111592</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A484">
+        <v>483</v>
+      </c>
+      <c r="B484">
+        <v>1011111593</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A485">
+        <v>484</v>
+      </c>
+      <c r="B485">
+        <v>1011111594</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A486">
+        <v>485</v>
+      </c>
+      <c r="B486">
+        <v>1011111595</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A487">
+        <v>486</v>
+      </c>
+      <c r="B487">
+        <v>1011111596</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A488">
+        <v>487</v>
+      </c>
+      <c r="B488">
+        <v>1011111597</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A489">
+        <v>488</v>
+      </c>
+      <c r="B489">
+        <v>1011111598</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A490">
+        <v>489</v>
+      </c>
+      <c r="B490">
+        <v>1011111599</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A491">
+        <v>490</v>
+      </c>
+      <c r="B491">
+        <v>1011111600</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A492">
+        <v>491</v>
+      </c>
+      <c r="B492">
+        <v>1011111601</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A493">
+        <v>492</v>
+      </c>
+      <c r="B493">
+        <v>1011111602</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A494">
+        <v>493</v>
+      </c>
+      <c r="B494">
+        <v>1011111603</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A495">
+        <v>494</v>
+      </c>
+      <c r="B495">
+        <v>1011111604</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A496">
+        <v>495</v>
+      </c>
+      <c r="B496">
+        <v>1011111605</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A497">
+        <v>496</v>
+      </c>
+      <c r="B497">
+        <v>1011111606</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A498">
+        <v>497</v>
+      </c>
+      <c r="B498">
+        <v>1011111607</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A499">
+        <v>498</v>
+      </c>
+      <c r="B499">
+        <v>1011111608</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A500">
+        <v>499</v>
+      </c>
+      <c r="B500">
+        <v>1011111609</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A501">
+        <v>500</v>
+      </c>
+      <c r="B501">
+        <v>1011111610</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A502">
+        <v>501</v>
+      </c>
+      <c r="B502">
+        <v>1011111611</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A503">
+        <v>502</v>
+      </c>
+      <c r="B503">
+        <v>1011111612</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A504">
+        <v>503</v>
+      </c>
+      <c r="B504">
+        <v>1011111613</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A505">
+        <v>504</v>
+      </c>
+      <c r="B505">
+        <v>1011111614</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A506">
+        <v>505</v>
+      </c>
+      <c r="B506">
+        <v>1011111615</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A507">
+        <v>506</v>
+      </c>
+      <c r="B507">
+        <v>1011111616</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A508">
+        <v>507</v>
+      </c>
+      <c r="B508">
+        <v>1011111617</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A509">
+        <v>508</v>
+      </c>
+      <c r="B509">
+        <v>1011111618</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A510">
+        <v>509</v>
+      </c>
+      <c r="B510">
+        <v>1011111619</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A511">
+        <v>510</v>
+      </c>
+      <c r="B511">
+        <v>1011111620</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A512">
+        <v>511</v>
+      </c>
+      <c r="B512">
+        <v>1011111621</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A513">
+        <v>512</v>
+      </c>
+      <c r="B513">
+        <v>1011111622</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A514">
+        <v>513</v>
+      </c>
+      <c r="B514">
+        <v>1011111623</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A515">
+        <v>514</v>
+      </c>
+      <c r="B515">
+        <v>1011111624</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A516">
+        <v>515</v>
+      </c>
+      <c r="B516">
+        <v>1011111625</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A517">
+        <v>516</v>
+      </c>
+      <c r="B517">
+        <v>1011111626</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A518">
+        <v>517</v>
+      </c>
+      <c r="B518">
+        <v>1011111627</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A519">
+        <v>518</v>
+      </c>
+      <c r="B519">
+        <v>1011111628</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A520">
+        <v>519</v>
+      </c>
+      <c r="B520">
+        <v>1011111629</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A521">
+        <v>520</v>
+      </c>
+      <c r="B521">
+        <v>1011111630</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A522">
+        <v>521</v>
+      </c>
+      <c r="B522">
+        <v>1011111631</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A523">
+        <v>522</v>
+      </c>
+      <c r="B523">
+        <v>1011111632</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A524">
+        <v>523</v>
+      </c>
+      <c r="B524">
+        <v>1011111633</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A525">
+        <v>524</v>
+      </c>
+      <c r="B525">
+        <v>1011111634</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A526">
+        <v>525</v>
+      </c>
+      <c r="B526">
+        <v>1011111635</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A527">
+        <v>526</v>
+      </c>
+      <c r="B527">
+        <v>1011111636</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A528">
+        <v>527</v>
+      </c>
+      <c r="B528">
+        <v>1011111637</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A529">
+        <v>528</v>
+      </c>
+      <c r="B529">
+        <v>1011111638</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A530">
+        <v>529</v>
+      </c>
+      <c r="B530">
+        <v>1011111639</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A531">
+        <v>530</v>
+      </c>
+      <c r="B531">
+        <v>1011111640</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A532">
+        <v>531</v>
+      </c>
+      <c r="B532">
+        <v>1011111641</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A533">
+        <v>532</v>
+      </c>
+      <c r="B533">
+        <v>1011111642</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A534">
+        <v>533</v>
+      </c>
+      <c r="B534">
+        <v>1011111643</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A535">
+        <v>534</v>
+      </c>
+      <c r="B535">
+        <v>1011111644</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A536">
+        <v>535</v>
+      </c>
+      <c r="B536">
+        <v>1011111645</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A537">
+        <v>536</v>
+      </c>
+      <c r="B537">
+        <v>1011111646</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A538">
+        <v>537</v>
+      </c>
+      <c r="B538">
+        <v>1011111647</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A539">
+        <v>538</v>
+      </c>
+      <c r="B539">
+        <v>1011111648</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A540">
+        <v>539</v>
+      </c>
+      <c r="B540">
+        <v>1011111649</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A541">
+        <v>540</v>
+      </c>
+      <c r="B541">
+        <v>1011111650</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A542">
+        <v>541</v>
+      </c>
+      <c r="B542">
+        <v>1011111651</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A543">
+        <v>542</v>
+      </c>
+      <c r="B543">
+        <v>1011111652</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A544">
+        <v>543</v>
+      </c>
+      <c r="B544">
+        <v>1011111653</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A545">
+        <v>544</v>
+      </c>
+      <c r="B545">
+        <v>1011111654</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A546">
+        <v>545</v>
+      </c>
+      <c r="B546">
+        <v>1011111655</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A547">
+        <v>546</v>
+      </c>
+      <c r="B547">
+        <v>1011111656</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A548">
+        <v>547</v>
+      </c>
+      <c r="B548">
+        <v>1011111657</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A549">
+        <v>548</v>
+      </c>
+      <c r="B549">
+        <v>1011111658</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A550">
+        <v>549</v>
+      </c>
+      <c r="B550">
+        <v>1011111659</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A551">
+        <v>550</v>
+      </c>
+      <c r="B551">
+        <v>1011111660</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A552">
+        <v>551</v>
+      </c>
+      <c r="B552">
+        <v>1011111661</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A553">
+        <v>552</v>
+      </c>
+      <c r="B553">
+        <v>1011111662</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A554">
+        <v>553</v>
+      </c>
+      <c r="B554">
+        <v>1011111663</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A555">
+        <v>554</v>
+      </c>
+      <c r="B555">
+        <v>1011111664</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A556">
+        <v>555</v>
+      </c>
+      <c r="B556">
+        <v>1011111665</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A557">
+        <v>556</v>
+      </c>
+      <c r="B557">
+        <v>1011111666</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A558">
+        <v>557</v>
+      </c>
+      <c r="B558">
+        <v>1011111667</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A559">
+        <v>558</v>
+      </c>
+      <c r="B559">
+        <v>1011111668</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A560">
+        <v>559</v>
+      </c>
+      <c r="B560">
+        <v>1011111669</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A561">
+        <v>560</v>
+      </c>
+      <c r="B561">
+        <v>1011111670</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A562">
+        <v>561</v>
+      </c>
+      <c r="B562">
+        <v>1011111671</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A563">
+        <v>562</v>
+      </c>
+      <c r="B563">
+        <v>1011111672</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A564">
+        <v>563</v>
+      </c>
+      <c r="B564">
+        <v>1011111673</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A565">
+        <v>564</v>
+      </c>
+      <c r="B565">
+        <v>1011111674</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A566">
+        <v>565</v>
+      </c>
+      <c r="B566">
+        <v>1011111675</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A567">
+        <v>566</v>
+      </c>
+      <c r="B567">
+        <v>1011111676</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A568">
+        <v>567</v>
+      </c>
+      <c r="B568">
+        <v>1011111677</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A569">
+        <v>568</v>
+      </c>
+      <c r="B569">
+        <v>1011111678</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A570">
+        <v>569</v>
+      </c>
+      <c r="B570">
+        <v>1011111679</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A571">
+        <v>570</v>
+      </c>
+      <c r="B571">
+        <v>1011111680</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A572">
+        <v>571</v>
+      </c>
+      <c r="B572">
+        <v>1011111681</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A573">
+        <v>572</v>
+      </c>
+      <c r="B573">
+        <v>1011111682</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A574">
+        <v>573</v>
+      </c>
+      <c r="B574">
+        <v>1011111683</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A575">
+        <v>574</v>
+      </c>
+      <c r="B575">
+        <v>1011111684</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A576">
+        <v>575</v>
+      </c>
+      <c r="B576">
+        <v>1011111685</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A577">
+        <v>576</v>
+      </c>
+      <c r="B577">
+        <v>1011111686</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A578">
+        <v>577</v>
+      </c>
+      <c r="B578">
+        <v>1011111687</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A579">
+        <v>578</v>
+      </c>
+      <c r="B579">
+        <v>1011111688</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A580">
+        <v>579</v>
+      </c>
+      <c r="B580">
+        <v>1011111689</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A581">
+        <v>580</v>
+      </c>
+      <c r="B581">
+        <v>1011111690</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A582">
+        <v>581</v>
+      </c>
+      <c r="B582">
+        <v>1011111691</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A583">
+        <v>582</v>
+      </c>
+      <c r="B583">
+        <v>1011111692</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A584">
+        <v>583</v>
+      </c>
+      <c r="B584">
+        <v>1011111693</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A585">
+        <v>584</v>
+      </c>
+      <c r="B585">
+        <v>1011111694</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A586">
+        <v>585</v>
+      </c>
+      <c r="B586">
+        <v>1011111695</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A587">
+        <v>586</v>
+      </c>
+      <c r="B587">
+        <v>1011111696</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A588">
+        <v>587</v>
+      </c>
+      <c r="B588">
+        <v>1011111697</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A589">
+        <v>588</v>
+      </c>
+      <c r="B589">
+        <v>1011111698</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A590">
+        <v>589</v>
+      </c>
+      <c r="B590">
+        <v>1011111699</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A591">
+        <v>590</v>
+      </c>
+      <c r="B591">
+        <v>1011111700</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A592">
+        <v>591</v>
+      </c>
+      <c r="B592">
+        <v>1011111701</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A593">
+        <v>592</v>
+      </c>
+      <c r="B593">
+        <v>1011111702</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A594">
+        <v>593</v>
+      </c>
+      <c r="B594">
+        <v>1011111703</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A595">
+        <v>594</v>
+      </c>
+      <c r="B595">
+        <v>1011111704</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A596">
+        <v>595</v>
+      </c>
+      <c r="B596">
+        <v>1011111705</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A597">
+        <v>596</v>
+      </c>
+      <c r="B597">
+        <v>1011111706</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A598">
+        <v>597</v>
+      </c>
+      <c r="B598">
+        <v>1011111707</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A599">
+        <v>598</v>
+      </c>
+      <c r="B599">
+        <v>1011111708</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A600">
+        <v>599</v>
+      </c>
+      <c r="B600">
+        <v>1011111709</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A601">
+        <v>600</v>
+      </c>
+      <c r="B601">
+        <v>1011111710</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A602">
+        <v>601</v>
+      </c>
+      <c r="B602">
+        <v>1011111711</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A603">
+        <v>602</v>
+      </c>
+      <c r="B603">
+        <v>1011111712</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A604">
+        <v>603</v>
+      </c>
+      <c r="B604">
+        <v>1011111713</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A605">
+        <v>604</v>
+      </c>
+      <c r="B605">
+        <v>1011111714</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A606">
+        <v>605</v>
+      </c>
+      <c r="B606">
+        <v>1011111715</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A607">
+        <v>606</v>
+      </c>
+      <c r="B607">
+        <v>1011111716</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A608">
+        <v>607</v>
+      </c>
+      <c r="B608">
+        <v>1011111717</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A609">
+        <v>608</v>
+      </c>
+      <c r="B609">
+        <v>1011111718</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A610">
+        <v>609</v>
+      </c>
+      <c r="B610">
+        <v>1011111719</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A611">
+        <v>610</v>
+      </c>
+      <c r="B611">
+        <v>1011111720</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A612">
+        <v>611</v>
+      </c>
+      <c r="B612">
+        <v>1011111721</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A613">
+        <v>612</v>
+      </c>
+      <c r="B613">
+        <v>1011111722</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A614">
+        <v>613</v>
+      </c>
+      <c r="B614">
+        <v>1011111723</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A615">
+        <v>614</v>
+      </c>
+      <c r="B615">
+        <v>1011111724</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A616">
+        <v>615</v>
+      </c>
+      <c r="B616">
+        <v>1011111725</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A617">
+        <v>616</v>
+      </c>
+      <c r="B617">
+        <v>1011111726</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A618">
+        <v>617</v>
+      </c>
+      <c r="B618">
+        <v>1011111727</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A619">
+        <v>618</v>
+      </c>
+      <c r="B619">
+        <v>1011111728</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A620">
+        <v>619</v>
+      </c>
+      <c r="B620">
+        <v>1011111729</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A621">
+        <v>620</v>
+      </c>
+      <c r="B621">
+        <v>1011111730</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A622">
+        <v>621</v>
+      </c>
+      <c r="B622">
+        <v>1011111731</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A623">
+        <v>622</v>
+      </c>
+      <c r="B623">
+        <v>1011111732</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A624">
+        <v>623</v>
+      </c>
+      <c r="B624">
+        <v>1011111733</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A625">
+        <v>624</v>
+      </c>
+      <c r="B625">
+        <v>1011111734</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A626">
+        <v>625</v>
+      </c>
+      <c r="B626">
+        <v>1011111735</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A627">
+        <v>626</v>
+      </c>
+      <c r="B627">
+        <v>1011111736</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A628">
+        <v>627</v>
+      </c>
+      <c r="B628">
+        <v>1011111737</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A629">
+        <v>628</v>
+      </c>
+      <c r="B629">
+        <v>1011111738</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A630">
+        <v>629</v>
+      </c>
+      <c r="B630">
+        <v>1011111739</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A631">
+        <v>630</v>
+      </c>
+      <c r="B631">
+        <v>1011111740</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A632">
+        <v>631</v>
+      </c>
+      <c r="B632">
+        <v>1011111741</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A633">
+        <v>632</v>
+      </c>
+      <c r="B633">
+        <v>1011111742</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A634">
+        <v>633</v>
+      </c>
+      <c r="B634">
+        <v>1011111743</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A635">
+        <v>634</v>
+      </c>
+      <c r="B635">
+        <v>1011111744</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A636">
+        <v>635</v>
+      </c>
+      <c r="B636">
+        <v>1011111745</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A637">
+        <v>636</v>
+      </c>
+      <c r="B637">
+        <v>1011111746</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A638">
+        <v>637</v>
+      </c>
+      <c r="B638">
+        <v>1011111747</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A639">
+        <v>638</v>
+      </c>
+      <c r="B639">
+        <v>1011111748</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A640">
+        <v>639</v>
+      </c>
+      <c r="B640">
+        <v>1011111749</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A641">
+        <v>640</v>
+      </c>
+      <c r="B641">
+        <v>1011111750</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A642">
+        <v>641</v>
+      </c>
+      <c r="B642">
+        <v>1011111751</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A643">
+        <v>642</v>
+      </c>
+      <c r="B643">
+        <v>1011111752</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A644">
+        <v>643</v>
+      </c>
+      <c r="B644">
+        <v>1011111753</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A645">
+        <v>644</v>
+      </c>
+      <c r="B645">
+        <v>1011111754</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A646">
+        <v>645</v>
+      </c>
+      <c r="B646">
+        <v>1011111755</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A647">
+        <v>646</v>
+      </c>
+      <c r="B647">
+        <v>1011111756</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A648">
+        <v>647</v>
+      </c>
+      <c r="B648">
+        <v>1011111757</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A649">
+        <v>648</v>
+      </c>
+      <c r="B649">
+        <v>1011111758</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A650">
+        <v>649</v>
+      </c>
+      <c r="B650">
+        <v>1011111759</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A651">
+        <v>650</v>
+      </c>
+      <c r="B651">
+        <v>1011111760</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A652">
+        <v>651</v>
+      </c>
+      <c r="B652">
+        <v>1011111761</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A653">
+        <v>652</v>
+      </c>
+      <c r="B653">
+        <v>1011111762</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A654">
+        <v>653</v>
+      </c>
+      <c r="B654">
+        <v>1011111763</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A655">
+        <v>654</v>
+      </c>
+      <c r="B655">
+        <v>1011111764</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A656">
+        <v>655</v>
+      </c>
+      <c r="B656">
+        <v>1011111765</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A657">
+        <v>656</v>
+      </c>
+      <c r="B657">
+        <v>1011111766</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A658">
+        <v>657</v>
+      </c>
+      <c r="B658">
+        <v>1011111767</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A659">
+        <v>658</v>
+      </c>
+      <c r="B659">
+        <v>1011111768</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A660">
+        <v>659</v>
+      </c>
+      <c r="B660">
+        <v>1011111769</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A661">
+        <v>660</v>
+      </c>
+      <c r="B661">
+        <v>1011111770</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A662">
+        <v>661</v>
+      </c>
+      <c r="B662">
+        <v>1011111771</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A663">
+        <v>662</v>
+      </c>
+      <c r="B663">
+        <v>1011111772</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A664">
+        <v>663</v>
+      </c>
+      <c r="B664">
+        <v>1011111773</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A665">
+        <v>664</v>
+      </c>
+      <c r="B665">
+        <v>1011111774</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A666">
+        <v>665</v>
+      </c>
+      <c r="B666">
+        <v>1011111775</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A667">
+        <v>666</v>
+      </c>
+      <c r="B667">
+        <v>1011111776</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A668">
+        <v>667</v>
+      </c>
+      <c r="B668">
+        <v>1011111777</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A669">
+        <v>668</v>
+      </c>
+      <c r="B669">
+        <v>1011111778</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A670">
+        <v>669</v>
+      </c>
+      <c r="B670">
+        <v>1011111779</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A671">
+        <v>670</v>
+      </c>
+      <c r="B671">
+        <v>1011111780</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A672">
+        <v>671</v>
+      </c>
+      <c r="B672">
+        <v>1011111781</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A673">
+        <v>672</v>
+      </c>
+      <c r="B673">
+        <v>1011111782</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A674">
+        <v>673</v>
+      </c>
+      <c r="B674">
+        <v>1011111783</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A675">
+        <v>674</v>
+      </c>
+      <c r="B675">
+        <v>1011111784</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A676">
+        <v>675</v>
+      </c>
+      <c r="B676">
+        <v>1011111785</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A677">
+        <v>676</v>
+      </c>
+      <c r="B677">
+        <v>1011111786</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A678">
+        <v>677</v>
+      </c>
+      <c r="B678">
+        <v>1011111787</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A679">
+        <v>678</v>
+      </c>
+      <c r="B679">
+        <v>1011111788</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A680">
+        <v>679</v>
+      </c>
+      <c r="B680">
+        <v>1011111789</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A681">
+        <v>680</v>
+      </c>
+      <c r="B681">
+        <v>1011111790</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A682">
+        <v>681</v>
+      </c>
+      <c r="B682">
+        <v>1011111791</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A683">
+        <v>682</v>
+      </c>
+      <c r="B683">
+        <v>1011111792</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A684">
+        <v>683</v>
+      </c>
+      <c r="B684">
+        <v>1011111793</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A685">
+        <v>684</v>
+      </c>
+      <c r="B685">
+        <v>1011111794</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A686">
+        <v>685</v>
+      </c>
+      <c r="B686">
+        <v>1011111795</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A687">
+        <v>686</v>
+      </c>
+      <c r="B687">
+        <v>1011111796</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A688">
+        <v>687</v>
+      </c>
+      <c r="B688">
+        <v>1011111797</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A689">
+        <v>688</v>
+      </c>
+      <c r="B689">
+        <v>1011111798</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A690">
+        <v>689</v>
+      </c>
+      <c r="B690">
+        <v>1011111799</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A691">
+        <v>690</v>
+      </c>
+      <c r="B691">
+        <v>1011111800</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A692">
+        <v>691</v>
+      </c>
+      <c r="B692">
+        <v>1011111801</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A693">
+        <v>692</v>
+      </c>
+      <c r="B693">
+        <v>1011111802</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A694">
+        <v>693</v>
+      </c>
+      <c r="B694">
+        <v>1011111803</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A695">
+        <v>694</v>
+      </c>
+      <c r="B695">
+        <v>1011111804</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A696">
+        <v>695</v>
+      </c>
+      <c r="B696">
+        <v>1011111805</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A697">
+        <v>696</v>
+      </c>
+      <c r="B697">
+        <v>1011111806</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A698">
+        <v>697</v>
+      </c>
+      <c r="B698">
+        <v>1011111807</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A699">
+        <v>698</v>
+      </c>
+      <c r="B699">
+        <v>1011111808</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A700">
+        <v>699</v>
+      </c>
+      <c r="B700">
+        <v>1011111809</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A701">
+        <v>700</v>
+      </c>
+      <c r="B701">
+        <v>1011111810</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A702">
+        <v>701</v>
+      </c>
+      <c r="B702">
+        <v>1011111811</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A703">
+        <v>702</v>
+      </c>
+      <c r="B703">
+        <v>1011111812</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A704">
+        <v>703</v>
+      </c>
+      <c r="B704">
+        <v>1011111813</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A705">
+        <v>704</v>
+      </c>
+      <c r="B705">
+        <v>1011111814</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A706">
+        <v>705</v>
+      </c>
+      <c r="B706">
+        <v>1011111815</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A707">
+        <v>706</v>
+      </c>
+      <c r="B707">
+        <v>1011111816</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A708">
+        <v>707</v>
+      </c>
+      <c r="B708">
+        <v>1011111817</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A709">
+        <v>708</v>
+      </c>
+      <c r="B709">
+        <v>1011111818</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A710">
+        <v>709</v>
+      </c>
+      <c r="B710">
+        <v>1011111819</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A711">
+        <v>710</v>
+      </c>
+      <c r="B711">
+        <v>1011111820</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A712">
+        <v>711</v>
+      </c>
+      <c r="B712">
+        <v>1011111821</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A713">
+        <v>712</v>
+      </c>
+      <c r="B713">
+        <v>1011111822</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A714">
+        <v>713</v>
+      </c>
+      <c r="B714">
+        <v>1011111823</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A715">
+        <v>714</v>
+      </c>
+      <c r="B715">
+        <v>1011111824</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A716">
+        <v>715</v>
+      </c>
+      <c r="B716">
+        <v>1011111825</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A717">
+        <v>716</v>
+      </c>
+      <c r="B717">
+        <v>1011111826</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A718">
+        <v>717</v>
+      </c>
+      <c r="B718">
+        <v>1011111827</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A719">
+        <v>718</v>
+      </c>
+      <c r="B719">
+        <v>1011111828</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A720">
+        <v>719</v>
+      </c>
+      <c r="B720">
+        <v>1011111829</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A721">
+        <v>720</v>
+      </c>
+      <c r="B721">
+        <v>1011111830</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A722">
+        <v>721</v>
+      </c>
+      <c r="B722">
+        <v>1011111831</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A723">
+        <v>722</v>
+      </c>
+      <c r="B723">
+        <v>1011111832</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A724">
+        <v>723</v>
+      </c>
+      <c r="B724">
+        <v>1011111833</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A725">
+        <v>724</v>
+      </c>
+      <c r="B725">
+        <v>1011111834</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A726">
+        <v>725</v>
+      </c>
+      <c r="B726">
+        <v>1011111835</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A727">
+        <v>726</v>
+      </c>
+      <c r="B727">
+        <v>1011111836</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A728">
+        <v>727</v>
+      </c>
+      <c r="B728">
+        <v>1011111837</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A729">
+        <v>728</v>
+      </c>
+      <c r="B729">
+        <v>1011111838</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A730">
+        <v>729</v>
+      </c>
+      <c r="B730">
+        <v>1011111839</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A731">
+        <v>730</v>
+      </c>
+      <c r="B731">
+        <v>1011111840</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A732">
+        <v>731</v>
+      </c>
+      <c r="B732">
+        <v>1011111841</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A733">
+        <v>732</v>
+      </c>
+      <c r="B733">
+        <v>1011111842</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A734">
+        <v>733</v>
+      </c>
+      <c r="B734">
+        <v>1011111843</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A735">
+        <v>734</v>
+      </c>
+      <c r="B735">
+        <v>1011111844</v>
+      </c>
+    </row>
+    <row r="736" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A736">
+        <v>735</v>
+      </c>
+      <c r="B736">
+        <v>1011111845</v>
+      </c>
+    </row>
+    <row r="737" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A737">
+        <v>736</v>
+      </c>
+      <c r="B737">
+        <v>1011111846</v>
+      </c>
+    </row>
+    <row r="738" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A738">
+        <v>737</v>
+      </c>
+      <c r="B738">
+        <v>1011111847</v>
+      </c>
+    </row>
+    <row r="739" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A739">
+        <v>738</v>
+      </c>
+      <c r="B739">
+        <v>1011111848</v>
+      </c>
+    </row>
+    <row r="740" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A740">
+        <v>739</v>
+      </c>
+      <c r="B740">
+        <v>1011111849</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A741">
+        <v>740</v>
+      </c>
+      <c r="B741">
+        <v>1011111850</v>
+      </c>
+    </row>
+    <row r="742" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A742">
+        <v>741</v>
+      </c>
+      <c r="B742">
+        <v>1011111851</v>
+      </c>
+    </row>
+    <row r="743" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A743">
+        <v>742</v>
+      </c>
+      <c r="B743">
+        <v>1011111852</v>
+      </c>
+    </row>
+    <row r="744" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A744">
+        <v>743</v>
+      </c>
+      <c r="B744">
+        <v>1011111853</v>
+      </c>
+    </row>
+    <row r="745" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A745">
+        <v>744</v>
+      </c>
+      <c r="B745">
+        <v>1011111854</v>
+      </c>
+    </row>
+    <row r="746" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A746">
+        <v>745</v>
+      </c>
+      <c r="B746">
+        <v>1011111855</v>
+      </c>
+    </row>
+    <row r="747" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A747">
+        <v>746</v>
+      </c>
+      <c r="B747">
+        <v>1011111856</v>
+      </c>
+    </row>
+    <row r="748" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A748">
+        <v>747</v>
+      </c>
+      <c r="B748">
+        <v>1011111857</v>
+      </c>
+    </row>
+    <row r="749" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A749">
+        <v>748</v>
+      </c>
+      <c r="B749">
+        <v>1011111858</v>
+      </c>
+    </row>
+    <row r="750" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A750">
+        <v>749</v>
+      </c>
+      <c r="B750">
+        <v>1011111859</v>
+      </c>
+    </row>
+    <row r="751" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A751">
+        <v>750</v>
+      </c>
+      <c r="B751">
+        <v>1011111860</v>
+      </c>
+    </row>
+    <row r="752" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A752">
+        <v>751</v>
+      </c>
+      <c r="B752">
+        <v>1011111861</v>
+      </c>
+    </row>
+    <row r="753" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A753">
+        <v>752</v>
+      </c>
+      <c r="B753">
+        <v>1011111862</v>
+      </c>
+    </row>
+    <row r="754" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A754">
+        <v>753</v>
+      </c>
+      <c r="B754">
+        <v>1011111863</v>
+      </c>
+    </row>
+    <row r="755" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A755">
+        <v>754</v>
+      </c>
+      <c r="B755">
+        <v>1011111864</v>
+      </c>
+    </row>
+    <row r="756" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A756">
+        <v>755</v>
+      </c>
+      <c r="B756">
+        <v>1011111865</v>
+      </c>
+    </row>
+    <row r="757" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A757">
+        <v>756</v>
+      </c>
+      <c r="B757">
+        <v>1011111866</v>
+      </c>
+    </row>
+    <row r="758" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A758">
+        <v>757</v>
+      </c>
+      <c r="B758">
+        <v>1011111867</v>
+      </c>
+    </row>
+    <row r="759" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A759">
+        <v>758</v>
+      </c>
+      <c r="B759">
+        <v>1011111868</v>
+      </c>
+    </row>
+    <row r="760" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A760">
+        <v>759</v>
+      </c>
+      <c r="B760">
+        <v>1011111869</v>
+      </c>
+    </row>
+    <row r="761" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A761">
+        <v>760</v>
+      </c>
+      <c r="B761">
+        <v>1011111870</v>
+      </c>
+    </row>
+    <row r="762" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A762">
+        <v>761</v>
+      </c>
+      <c r="B762">
+        <v>1011111871</v>
+      </c>
+    </row>
+    <row r="763" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A763">
+        <v>762</v>
+      </c>
+      <c r="B763">
+        <v>1011111872</v>
+      </c>
+    </row>
+    <row r="764" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A764">
+        <v>763</v>
+      </c>
+      <c r="B764">
+        <v>1011111873</v>
+      </c>
+    </row>
+    <row r="765" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A765">
+        <v>764</v>
+      </c>
+      <c r="B765">
+        <v>1011111874</v>
+      </c>
+    </row>
+    <row r="766" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A766">
+        <v>765</v>
+      </c>
+      <c r="B766">
+        <v>1011111875</v>
+      </c>
+    </row>
+    <row r="767" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A767">
+        <v>766</v>
+      </c>
+      <c r="B767">
+        <v>1011111876</v>
+      </c>
+    </row>
+    <row r="768" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A768">
+        <v>767</v>
+      </c>
+      <c r="B768">
+        <v>1011111877</v>
+      </c>
+    </row>
+    <row r="769" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A769">
+        <v>768</v>
+      </c>
+      <c r="B769">
+        <v>1011111878</v>
+      </c>
+    </row>
+    <row r="770" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A770">
+        <v>769</v>
+      </c>
+      <c r="B770">
+        <v>1011111879</v>
+      </c>
+    </row>
+    <row r="771" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A771">
+        <v>770</v>
+      </c>
+      <c r="B771">
+        <v>1011111880</v>
+      </c>
+    </row>
+    <row r="772" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A772">
+        <v>771</v>
+      </c>
+      <c r="B772">
+        <v>1011111881</v>
+      </c>
+    </row>
+    <row r="773" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A773">
+        <v>772</v>
+      </c>
+      <c r="B773">
+        <v>1011111882</v>
+      </c>
+    </row>
+    <row r="774" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A774">
+        <v>773</v>
+      </c>
+      <c r="B774">
+        <v>1011111883</v>
+      </c>
+    </row>
+    <row r="775" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A775">
+        <v>774</v>
+      </c>
+      <c r="B775">
+        <v>1011111884</v>
+      </c>
+    </row>
+    <row r="776" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A776">
+        <v>775</v>
+      </c>
+      <c r="B776">
+        <v>1011111885</v>
+      </c>
+    </row>
+    <row r="777" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A777">
+        <v>776</v>
+      </c>
+      <c r="B777">
+        <v>1011111886</v>
+      </c>
+    </row>
+    <row r="778" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A778">
+        <v>777</v>
+      </c>
+      <c r="B778">
+        <v>1011111887</v>
+      </c>
+    </row>
+    <row r="779" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A779">
+        <v>778</v>
+      </c>
+      <c r="B779">
+        <v>1011111888</v>
+      </c>
+    </row>
+    <row r="780" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A780">
+        <v>779</v>
+      </c>
+      <c r="B780">
+        <v>1011111889</v>
+      </c>
+    </row>
+    <row r="781" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A781">
+        <v>780</v>
+      </c>
+      <c r="B781">
+        <v>1011111890</v>
+      </c>
+    </row>
+    <row r="782" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A782">
+        <v>781</v>
+      </c>
+      <c r="B782">
+        <v>1011111891</v>
+      </c>
+    </row>
+    <row r="783" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A783">
+        <v>782</v>
+      </c>
+      <c r="B783">
+        <v>1011111892</v>
+      </c>
+    </row>
+    <row r="784" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A784">
+        <v>783</v>
+      </c>
+      <c r="B784">
+        <v>1011111893</v>
+      </c>
+    </row>
+    <row r="785" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A785">
+        <v>784</v>
+      </c>
+      <c r="B785">
+        <v>1011111894</v>
+      </c>
+    </row>
+    <row r="786" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A786">
+        <v>785</v>
+      </c>
+      <c r="B786">
+        <v>1011111895</v>
+      </c>
+    </row>
+    <row r="787" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A787">
+        <v>786</v>
+      </c>
+      <c r="B787">
+        <v>1011111896</v>
+      </c>
+    </row>
+    <row r="788" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A788">
+        <v>787</v>
+      </c>
+      <c r="B788">
+        <v>1011111897</v>
+      </c>
+    </row>
+    <row r="789" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A789">
+        <v>788</v>
+      </c>
+      <c r="B789">
+        <v>1011111898</v>
+      </c>
+    </row>
+    <row r="790" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A790">
+        <v>789</v>
+      </c>
+      <c r="B790">
+        <v>1011111899</v>
+      </c>
+    </row>
+    <row r="791" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A791">
+        <v>790</v>
+      </c>
+      <c r="B791">
+        <v>1011111900</v>
+      </c>
+    </row>
+    <row r="792" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A792">
+        <v>791</v>
+      </c>
+      <c r="B792">
+        <v>1011111901</v>
+      </c>
+    </row>
+    <row r="793" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A793">
+        <v>792</v>
+      </c>
+      <c r="B793">
+        <v>1011111902</v>
+      </c>
+    </row>
+    <row r="794" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A794">
+        <v>793</v>
+      </c>
+      <c r="B794">
+        <v>1011111903</v>
+      </c>
+    </row>
+    <row r="795" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A795">
+        <v>794</v>
+      </c>
+      <c r="B795">
+        <v>1011111904</v>
+      </c>
+    </row>
+    <row r="796" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A796">
+        <v>795</v>
+      </c>
+      <c r="B796">
+        <v>1011111905</v>
+      </c>
+    </row>
+    <row r="797" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A797">
+        <v>796</v>
+      </c>
+      <c r="B797">
+        <v>1011111906</v>
+      </c>
+    </row>
+    <row r="798" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A798">
+        <v>797</v>
+      </c>
+      <c r="B798">
+        <v>1011111907</v>
+      </c>
+    </row>
+    <row r="799" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A799">
+        <v>798</v>
+      </c>
+      <c r="B799">
+        <v>1011111908</v>
+      </c>
+    </row>
+    <row r="800" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A800">
+        <v>799</v>
+      </c>
+      <c r="B800">
+        <v>1011111909</v>
+      </c>
+    </row>
+    <row r="801" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A801">
+        <v>800</v>
+      </c>
+      <c r="B801">
+        <v>1011111910</v>
+      </c>
+    </row>
+    <row r="802" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A802">
+        <v>801</v>
+      </c>
+      <c r="B802">
+        <v>1011111911</v>
+      </c>
+    </row>
+    <row r="803" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A803">
+        <v>802</v>
+      </c>
+      <c r="B803">
+        <v>1011111912</v>
+      </c>
+    </row>
+    <row r="804" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A804">
+        <v>803</v>
+      </c>
+      <c r="B804">
+        <v>1011111913</v>
+      </c>
+    </row>
+    <row r="805" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A805">
+        <v>804</v>
+      </c>
+      <c r="B805">
+        <v>1011111914</v>
+      </c>
+    </row>
+    <row r="806" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A806">
+        <v>805</v>
+      </c>
+      <c r="B806">
+        <v>1011111915</v>
+      </c>
+    </row>
+    <row r="807" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A807">
+        <v>806</v>
+      </c>
+      <c r="B807">
+        <v>1011111916</v>
+      </c>
+    </row>
+    <row r="808" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A808">
+        <v>807</v>
+      </c>
+      <c r="B808">
+        <v>1011111917</v>
+      </c>
+    </row>
+    <row r="809" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A809">
+        <v>808</v>
+      </c>
+      <c r="B809">
+        <v>1011111918</v>
+      </c>
+    </row>
+    <row r="810" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A810">
+        <v>809</v>
+      </c>
+      <c r="B810">
+        <v>1011111919</v>
+      </c>
+    </row>
+    <row r="811" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A811">
+        <v>810</v>
+      </c>
+      <c r="B811">
+        <v>1011111920</v>
+      </c>
+    </row>
+    <row r="812" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A812">
+        <v>811</v>
+      </c>
+      <c r="B812">
+        <v>1011111921</v>
+      </c>
+    </row>
+    <row r="813" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A813">
+        <v>812</v>
+      </c>
+      <c r="B813">
+        <v>1011111922</v>
+      </c>
+    </row>
+    <row r="814" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A814">
+        <v>813</v>
+      </c>
+      <c r="B814">
+        <v>1011111923</v>
+      </c>
+    </row>
+    <row r="815" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A815">
+        <v>814</v>
+      </c>
+      <c r="B815">
+        <v>1011111924</v>
+      </c>
+    </row>
+    <row r="816" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A816">
+        <v>815</v>
+      </c>
+      <c r="B816">
+        <v>1011111925</v>
+      </c>
+    </row>
+    <row r="817" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A817">
+        <v>816</v>
+      </c>
+      <c r="B817">
+        <v>1011111926</v>
+      </c>
+    </row>
+    <row r="818" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A818">
+        <v>817</v>
+      </c>
+      <c r="B818">
+        <v>1011111927</v>
+      </c>
+    </row>
+    <row r="819" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A819">
+        <v>818</v>
+      </c>
+      <c r="B819">
+        <v>1011111928</v>
+      </c>
+    </row>
+    <row r="820" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A820">
+        <v>819</v>
+      </c>
+      <c r="B820">
+        <v>1011111929</v>
+      </c>
+    </row>
+    <row r="821" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A821">
+        <v>820</v>
+      </c>
+      <c r="B821">
+        <v>1011111930</v>
+      </c>
+    </row>
+    <row r="822" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A822">
+        <v>821</v>
+      </c>
+      <c r="B822">
+        <v>1011111931</v>
+      </c>
+    </row>
+    <row r="823" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A823">
+        <v>822</v>
+      </c>
+      <c r="B823">
+        <v>1011111932</v>
+      </c>
+    </row>
+    <row r="824" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A824">
+        <v>823</v>
+      </c>
+      <c r="B824">
+        <v>1011111933</v>
+      </c>
+    </row>
+    <row r="825" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A825">
+        <v>824</v>
+      </c>
+      <c r="B825">
+        <v>1011111934</v>
+      </c>
+    </row>
+    <row r="826" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A826">
+        <v>825</v>
+      </c>
+      <c r="B826">
+        <v>1011111935</v>
+      </c>
+    </row>
+    <row r="827" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A827">
+        <v>826</v>
+      </c>
+      <c r="B827">
+        <v>1011111936</v>
+      </c>
+    </row>
+    <row r="828" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A828">
+        <v>827</v>
+      </c>
+      <c r="B828">
+        <v>1011111937</v>
+      </c>
+    </row>
+    <row r="829" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A829">
+        <v>828</v>
+      </c>
+      <c r="B829">
+        <v>1011111938</v>
+      </c>
+    </row>
+    <row r="830" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A830">
+        <v>829</v>
+      </c>
+      <c r="B830">
+        <v>1011111939</v>
+      </c>
+    </row>
+    <row r="831" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A831">
+        <v>830</v>
+      </c>
+      <c r="B831">
+        <v>1011111940</v>
+      </c>
+    </row>
+    <row r="832" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A832">
+        <v>831</v>
+      </c>
+      <c r="B832">
+        <v>1011111941</v>
+      </c>
+    </row>
+    <row r="833" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A833">
+        <v>832</v>
+      </c>
+      <c r="B833">
+        <v>1011111942</v>
+      </c>
+    </row>
+    <row r="834" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A834">
+        <v>833</v>
+      </c>
+      <c r="B834">
+        <v>1011111943</v>
+      </c>
+    </row>
+    <row r="835" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A835">
+        <v>834</v>
+      </c>
+      <c r="B835">
+        <v>1011111944</v>
+      </c>
+    </row>
+    <row r="836" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A836">
+        <v>835</v>
+      </c>
+      <c r="B836">
+        <v>1011111945</v>
+      </c>
+    </row>
+    <row r="837" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A837">
+        <v>836</v>
+      </c>
+      <c r="B837">
+        <v>1011111946</v>
+      </c>
+    </row>
+    <row r="838" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A838">
+        <v>837</v>
+      </c>
+      <c r="B838">
+        <v>1011111947</v>
+      </c>
+    </row>
+    <row r="839" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A839">
+        <v>838</v>
+      </c>
+      <c r="B839">
+        <v>1011111948</v>
+      </c>
+    </row>
+    <row r="840" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A840">
+        <v>839</v>
+      </c>
+      <c r="B840">
+        <v>1011111949</v>
+      </c>
+    </row>
+    <row r="841" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A841">
+        <v>840</v>
+      </c>
+      <c r="B841">
+        <v>1011111950</v>
+      </c>
+    </row>
+    <row r="842" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A842">
+        <v>841</v>
+      </c>
+      <c r="B842">
+        <v>1011111951</v>
+      </c>
+    </row>
+    <row r="843" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A843">
+        <v>842</v>
+      </c>
+      <c r="B843">
+        <v>1011111952</v>
+      </c>
+    </row>
+    <row r="844" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A844">
+        <v>843</v>
+      </c>
+      <c r="B844">
+        <v>1011111953</v>
+      </c>
+    </row>
+    <row r="845" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A845">
+        <v>844</v>
+      </c>
+      <c r="B845">
+        <v>1011111954</v>
+      </c>
+    </row>
+    <row r="846" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A846">
+        <v>845</v>
+      </c>
+      <c r="B846">
+        <v>1011111955</v>
+      </c>
+    </row>
+    <row r="847" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A847">
+        <v>846</v>
+      </c>
+      <c r="B847">
+        <v>1011111956</v>
+      </c>
+    </row>
+    <row r="848" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A848">
+        <v>847</v>
+      </c>
+      <c r="B848">
+        <v>1011111957</v>
+      </c>
+    </row>
+    <row r="849" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A849">
+        <v>848</v>
+      </c>
+      <c r="B849">
+        <v>1011111958</v>
+      </c>
+    </row>
+    <row r="850" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A850">
+        <v>849</v>
+      </c>
+      <c r="B850">
+        <v>1011111959</v>
+      </c>
+    </row>
+    <row r="851" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A851">
+        <v>850</v>
+      </c>
+      <c r="B851">
+        <v>1011111960</v>
+      </c>
+    </row>
+    <row r="852" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A852">
+        <v>851</v>
+      </c>
+      <c r="B852">
+        <v>1011111961</v>
+      </c>
+    </row>
+    <row r="853" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A853">
+        <v>852</v>
+      </c>
+      <c r="B853">
+        <v>1011111962</v>
+      </c>
+    </row>
+    <row r="854" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A854">
+        <v>853</v>
+      </c>
+      <c r="B854">
+        <v>1011111963</v>
+      </c>
+    </row>
+    <row r="855" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A855">
+        <v>854</v>
+      </c>
+      <c r="B855">
+        <v>1011111964</v>
+      </c>
+    </row>
+    <row r="856" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A856">
+        <v>855</v>
+      </c>
+      <c r="B856">
+        <v>1011111965</v>
+      </c>
+    </row>
+    <row r="857" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A857">
+        <v>856</v>
+      </c>
+      <c r="B857">
+        <v>1011111966</v>
+      </c>
+    </row>
+    <row r="858" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A858">
+        <v>857</v>
+      </c>
+      <c r="B858">
+        <v>1011111967</v>
+      </c>
+    </row>
+    <row r="859" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A859">
+        <v>858</v>
+      </c>
+      <c r="B859">
+        <v>1011111968</v>
+      </c>
+    </row>
+    <row r="860" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A860">
+        <v>859</v>
+      </c>
+      <c r="B860">
+        <v>1011111969</v>
+      </c>
+    </row>
+    <row r="861" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A861">
+        <v>860</v>
+      </c>
+      <c r="B861">
+        <v>1011111970</v>
+      </c>
+    </row>
+    <row r="862" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A862">
+        <v>861</v>
+      </c>
+      <c r="B862">
+        <v>1011111971</v>
+      </c>
+    </row>
+    <row r="863" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A863">
+        <v>862</v>
+      </c>
+      <c r="B863">
+        <v>1011111972</v>
+      </c>
+    </row>
+    <row r="864" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A864">
+        <v>863</v>
+      </c>
+      <c r="B864">
+        <v>1011111973</v>
+      </c>
+    </row>
+    <row r="865" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A865">
+        <v>864</v>
+      </c>
+      <c r="B865">
+        <v>1011111974</v>
+      </c>
+    </row>
+    <row r="866" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A866">
+        <v>865</v>
+      </c>
+      <c r="B866">
+        <v>1011111975</v>
+      </c>
+    </row>
+    <row r="867" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A867">
+        <v>866</v>
+      </c>
+      <c r="B867">
+        <v>1011111976</v>
+      </c>
+    </row>
+    <row r="868" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A868">
+        <v>867</v>
+      </c>
+      <c r="B868">
+        <v>1011111977</v>
+      </c>
+    </row>
+    <row r="869" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A869">
+        <v>868</v>
+      </c>
+      <c r="B869">
+        <v>1011111978</v>
+      </c>
+    </row>
+    <row r="870" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A870">
+        <v>869</v>
+      </c>
+      <c r="B870">
+        <v>1011111979</v>
+      </c>
+    </row>
+    <row r="871" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A871">
+        <v>870</v>
+      </c>
+      <c r="B871">
+        <v>1011111980</v>
+      </c>
+    </row>
+    <row r="872" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A872">
+        <v>871</v>
+      </c>
+      <c r="B872">
+        <v>1011111981</v>
+      </c>
+    </row>
+    <row r="873" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A873">
+        <v>872</v>
+      </c>
+      <c r="B873">
+        <v>1011111982</v>
+      </c>
+    </row>
+    <row r="874" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A874">
+        <v>873</v>
+      </c>
+      <c r="B874">
+        <v>1011111983</v>
+      </c>
+    </row>
+    <row r="875" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A875">
+        <v>874</v>
+      </c>
+      <c r="B875">
+        <v>1011111984</v>
+      </c>
+    </row>
+    <row r="876" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A876">
+        <v>875</v>
+      </c>
+      <c r="B876">
+        <v>1011111985</v>
+      </c>
+    </row>
+    <row r="877" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A877">
+        <v>876</v>
+      </c>
+      <c r="B877">
+        <v>1011111986</v>
+      </c>
+    </row>
+    <row r="878" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A878">
+        <v>877</v>
+      </c>
+      <c r="B878">
+        <v>1011111987</v>
+      </c>
+    </row>
+    <row r="879" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A879">
+        <v>878</v>
+      </c>
+      <c r="B879">
+        <v>1011111988</v>
+      </c>
+    </row>
+    <row r="880" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A880">
+        <v>879</v>
+      </c>
+      <c r="B880">
+        <v>1011111989</v>
+      </c>
+    </row>
+    <row r="881" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A881">
+        <v>880</v>
+      </c>
+      <c r="B881">
+        <v>1011111990</v>
+      </c>
+    </row>
+    <row r="882" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A882">
+        <v>881</v>
+      </c>
+      <c r="B882">
+        <v>1011111991</v>
+      </c>
+    </row>
+    <row r="883" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A883">
+        <v>882</v>
+      </c>
+      <c r="B883">
+        <v>1011111992</v>
+      </c>
+    </row>
+    <row r="884" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A884">
+        <v>883</v>
+      </c>
+      <c r="B884">
+        <v>1011111993</v>
+      </c>
+    </row>
+    <row r="885" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A885">
+        <v>884</v>
+      </c>
+      <c r="B885">
+        <v>1011111994</v>
+      </c>
+    </row>
+    <row r="886" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A886">
+        <v>885</v>
+      </c>
+      <c r="B886">
+        <v>1011111995</v>
+      </c>
+    </row>
+    <row r="887" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A887">
+        <v>886</v>
+      </c>
+      <c r="B887">
+        <v>1011111996</v>
+      </c>
+    </row>
+    <row r="888" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A888">
+        <v>887</v>
+      </c>
+      <c r="B888">
+        <v>1011111997</v>
+      </c>
+    </row>
+    <row r="889" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A889">
+        <v>888</v>
+      </c>
+      <c r="B889">
+        <v>1011111998</v>
+      </c>
+    </row>
+    <row r="890" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A890">
+        <v>889</v>
+      </c>
+      <c r="B890">
+        <v>1011111999</v>
+      </c>
+    </row>
+    <row r="891" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A891">
+        <v>890</v>
+      </c>
+      <c r="B891">
+        <v>1011112000</v>
+      </c>
+    </row>
+    <row r="892" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A892">
+        <v>891</v>
+      </c>
+      <c r="B892">
+        <v>1011112001</v>
+      </c>
+    </row>
+    <row r="893" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A893">
+        <v>892</v>
+      </c>
+      <c r="B893">
+        <v>1011112002</v>
+      </c>
+    </row>
+    <row r="894" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A894">
+        <v>893</v>
+      </c>
+      <c r="B894">
+        <v>1011112003</v>
+      </c>
+    </row>
+    <row r="895" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A895">
+        <v>894</v>
+      </c>
+      <c r="B895">
+        <v>1011112004</v>
+      </c>
+    </row>
+    <row r="896" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A896">
+        <v>895</v>
+      </c>
+      <c r="B896">
+        <v>1011112005</v>
+      </c>
+    </row>
+    <row r="897" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A897">
+        <v>896</v>
+      </c>
+      <c r="B897">
+        <v>1011112006</v>
+      </c>
+    </row>
+    <row r="898" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A898">
+        <v>897</v>
+      </c>
+      <c r="B898">
+        <v>1011112007</v>
+      </c>
+    </row>
+    <row r="899" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A899">
+        <v>898</v>
+      </c>
+      <c r="B899">
+        <v>1011112008</v>
+      </c>
+    </row>
+    <row r="900" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A900">
+        <v>899</v>
+      </c>
+      <c r="B900">
+        <v>1011112009</v>
+      </c>
+    </row>
+    <row r="901" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A901">
+        <v>900</v>
+      </c>
+      <c r="B901">
+        <v>1011112010</v>
+      </c>
+    </row>
+    <row r="902" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A902">
+        <v>901</v>
+      </c>
+      <c r="B902">
+        <v>1011112011</v>
+      </c>
+    </row>
+    <row r="903" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A903">
+        <v>902</v>
+      </c>
+      <c r="B903">
+        <v>1011112012</v>
+      </c>
+    </row>
+    <row r="904" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A904">
+        <v>903</v>
+      </c>
+      <c r="B904">
+        <v>1011112013</v>
+      </c>
+    </row>
+    <row r="905" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A905">
+        <v>904</v>
+      </c>
+      <c r="B905">
+        <v>1011112014</v>
+      </c>
+    </row>
+    <row r="906" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A906">
+        <v>905</v>
+      </c>
+      <c r="B906">
+        <v>1011112015</v>
+      </c>
+    </row>
+    <row r="907" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A907">
+        <v>906</v>
+      </c>
+      <c r="B907">
+        <v>1011112016</v>
+      </c>
+    </row>
+    <row r="908" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A908">
+        <v>907</v>
+      </c>
+      <c r="B908">
+        <v>1011112017</v>
+      </c>
+    </row>
+    <row r="909" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A909">
+        <v>908</v>
+      </c>
+      <c r="B909">
+        <v>1011112018</v>
+      </c>
+    </row>
+    <row r="910" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A910">
+        <v>909</v>
+      </c>
+      <c r="B910">
+        <v>1011112019</v>
+      </c>
+    </row>
+    <row r="911" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A911">
+        <v>910</v>
+      </c>
+      <c r="B911">
+        <v>1011112020</v>
+      </c>
+    </row>
+    <row r="912" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A912">
+        <v>911</v>
+      </c>
+      <c r="B912">
+        <v>1011112021</v>
+      </c>
+    </row>
+    <row r="913" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A913">
+        <v>912</v>
+      </c>
+      <c r="B913">
+        <v>1011112022</v>
+      </c>
+    </row>
+    <row r="914" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A914">
+        <v>913</v>
+      </c>
+      <c r="B914">
+        <v>1011112023</v>
+      </c>
+    </row>
+    <row r="915" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A915">
+        <v>914</v>
+      </c>
+      <c r="B915">
+        <v>1011112024</v>
+      </c>
+    </row>
+    <row r="916" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A916">
+        <v>915</v>
+      </c>
+      <c r="B916">
+        <v>1011112025</v>
+      </c>
+    </row>
+    <row r="917" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A917">
+        <v>916</v>
+      </c>
+      <c r="B917">
+        <v>1011112026</v>
+      </c>
+    </row>
+    <row r="918" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A918">
+        <v>917</v>
+      </c>
+      <c r="B918">
+        <v>1011112027</v>
+      </c>
+    </row>
+    <row r="919" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A919">
+        <v>918</v>
+      </c>
+      <c r="B919">
+        <v>1011112028</v>
+      </c>
+    </row>
+    <row r="920" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A920">
+        <v>919</v>
+      </c>
+      <c r="B920">
+        <v>1011112029</v>
+      </c>
+    </row>
+    <row r="921" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A921">
+        <v>920</v>
+      </c>
+      <c r="B921">
+        <v>1011112030</v>
+      </c>
+    </row>
+    <row r="922" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A922">
+        <v>921</v>
+      </c>
+      <c r="B922">
+        <v>1011112031</v>
+      </c>
+    </row>
+    <row r="923" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A923">
+        <v>922</v>
+      </c>
+      <c r="B923">
+        <v>1011112032</v>
+      </c>
+    </row>
+    <row r="924" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A924">
+        <v>923</v>
+      </c>
+      <c r="B924">
+        <v>1011112033</v>
+      </c>
+    </row>
+    <row r="925" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A925">
+        <v>924</v>
+      </c>
+      <c r="B925">
+        <v>1011112034</v>
+      </c>
+    </row>
+    <row r="926" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A926">
+        <v>925</v>
+      </c>
+      <c r="B926">
+        <v>1011112035</v>
+      </c>
+    </row>
+    <row r="927" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A927">
+        <v>926</v>
+      </c>
+      <c r="B927">
+        <v>1011112036</v>
+      </c>
+    </row>
+    <row r="928" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A928">
+        <v>927</v>
+      </c>
+      <c r="B928">
+        <v>1011112037</v>
+      </c>
+    </row>
+    <row r="929" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A929">
+        <v>928</v>
+      </c>
+      <c r="B929">
+        <v>1011112038</v>
+      </c>
+    </row>
+    <row r="930" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A930">
+        <v>929</v>
+      </c>
+      <c r="B930">
+        <v>1011112039</v>
+      </c>
+    </row>
+    <row r="931" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A931">
+        <v>930</v>
+      </c>
+      <c r="B931">
+        <v>1011112040</v>
+      </c>
+    </row>
+    <row r="932" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A932">
+        <v>931</v>
+      </c>
+      <c r="B932">
+        <v>1011112041</v>
+      </c>
+    </row>
+    <row r="933" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A933">
+        <v>932</v>
+      </c>
+      <c r="B933">
+        <v>1011112042</v>
+      </c>
+    </row>
+    <row r="934" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A934">
+        <v>933</v>
+      </c>
+      <c r="B934">
+        <v>1011112043</v>
+      </c>
+    </row>
+    <row r="935" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A935">
+        <v>934</v>
+      </c>
+      <c r="B935">
+        <v>1011112044</v>
+      </c>
+    </row>
+    <row r="936" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A936">
+        <v>935</v>
+      </c>
+      <c r="B936">
+        <v>1011112045</v>
+      </c>
+    </row>
+    <row r="937" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A937">
+        <v>936</v>
+      </c>
+      <c r="B937">
+        <v>1011112046</v>
+      </c>
+    </row>
+    <row r="938" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A938">
+        <v>937</v>
+      </c>
+      <c r="B938">
+        <v>1011112047</v>
+      </c>
+    </row>
+    <row r="939" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A939">
+        <v>938</v>
+      </c>
+      <c r="B939">
+        <v>1011112048</v>
+      </c>
+    </row>
+    <row r="940" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A940">
+        <v>939</v>
+      </c>
+      <c r="B940">
+        <v>1011112049</v>
+      </c>
+    </row>
+    <row r="941" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A941">
+        <v>940</v>
+      </c>
+      <c r="B941">
+        <v>1011112050</v>
+      </c>
+    </row>
+    <row r="942" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A942">
+        <v>941</v>
+      </c>
+      <c r="B942">
+        <v>1011112051</v>
+      </c>
+    </row>
+    <row r="943" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A943">
+        <v>942</v>
+      </c>
+      <c r="B943">
+        <v>1011112052</v>
+      </c>
+    </row>
+    <row r="944" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A944">
+        <v>943</v>
+      </c>
+      <c r="B944">
+        <v>1011112053</v>
+      </c>
+    </row>
+    <row r="945" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A945">
+        <v>944</v>
+      </c>
+      <c r="B945">
+        <v>1011112054</v>
+      </c>
+    </row>
+    <row r="946" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A946">
+        <v>945</v>
+      </c>
+      <c r="B946">
+        <v>1011112055</v>
+      </c>
+    </row>
+    <row r="947" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A947">
+        <v>946</v>
+      </c>
+      <c r="B947">
+        <v>1011112056</v>
+      </c>
+    </row>
+    <row r="948" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A948">
+        <v>947</v>
+      </c>
+      <c r="B948">
+        <v>1011112057</v>
+      </c>
+    </row>
+    <row r="949" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A949">
+        <v>948</v>
+      </c>
+      <c r="B949">
+        <v>1011112058</v>
+      </c>
+    </row>
+    <row r="950" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A950">
+        <v>949</v>
+      </c>
+      <c r="B950">
+        <v>1011112059</v>
+      </c>
+    </row>
+    <row r="951" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A951">
+        <v>950</v>
+      </c>
+      <c r="B951">
+        <v>1011112060</v>
+      </c>
+    </row>
+    <row r="952" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A952">
+        <v>951</v>
+      </c>
+      <c r="B952">
+        <v>1011112061</v>
+      </c>
+    </row>
+    <row r="953" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A953">
+        <v>952</v>
+      </c>
+      <c r="B953">
+        <v>1011112062</v>
+      </c>
+    </row>
+    <row r="954" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A954">
+        <v>953</v>
+      </c>
+      <c r="B954">
+        <v>1011112063</v>
+      </c>
+    </row>
+    <row r="955" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A955">
+        <v>954</v>
+      </c>
+      <c r="B955">
+        <v>1011112064</v>
+      </c>
+    </row>
+    <row r="956" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A956">
+        <v>955</v>
+      </c>
+      <c r="B956">
+        <v>1011112065</v>
+      </c>
+    </row>
+    <row r="957" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A957">
+        <v>956</v>
+      </c>
+      <c r="B957">
+        <v>1011112066</v>
+      </c>
+    </row>
+    <row r="958" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A958">
+        <v>957</v>
+      </c>
+      <c r="B958">
+        <v>1011112067</v>
+      </c>
+    </row>
+    <row r="959" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A959">
+        <v>958</v>
+      </c>
+      <c r="B959">
+        <v>1011112068</v>
+      </c>
+    </row>
+    <row r="960" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A960">
+        <v>959</v>
+      </c>
+      <c r="B960">
+        <v>1011112069</v>
+      </c>
+    </row>
+    <row r="961" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A961">
+        <v>960</v>
+      </c>
+      <c r="B961">
+        <v>1011112070</v>
+      </c>
+    </row>
+    <row r="962" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A962">
+        <v>961</v>
+      </c>
+      <c r="B962">
+        <v>1011112071</v>
+      </c>
+    </row>
+    <row r="963" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A963">
+        <v>962</v>
+      </c>
+      <c r="B963">
+        <v>1011112072</v>
+      </c>
+    </row>
+    <row r="964" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A964">
+        <v>963</v>
+      </c>
+      <c r="B964">
+        <v>1011112073</v>
+      </c>
+    </row>
+    <row r="965" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A965">
+        <v>964</v>
+      </c>
+      <c r="B965">
+        <v>1011112074</v>
+      </c>
+    </row>
+    <row r="966" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A966">
+        <v>965</v>
+      </c>
+      <c r="B966">
+        <v>1011112075</v>
+      </c>
+    </row>
+    <row r="967" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A967">
+        <v>966</v>
+      </c>
+      <c r="B967">
+        <v>1011112076</v>
+      </c>
+    </row>
+    <row r="968" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A968">
+        <v>967</v>
+      </c>
+      <c r="B968">
+        <v>1011112077</v>
+      </c>
+    </row>
+    <row r="969" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A969">
+        <v>968</v>
+      </c>
+      <c r="B969">
+        <v>1011112078</v>
+      </c>
+    </row>
+    <row r="970" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A970">
+        <v>969</v>
+      </c>
+      <c r="B970">
+        <v>1011112079</v>
+      </c>
+    </row>
+    <row r="971" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A971">
+        <v>970</v>
+      </c>
+      <c r="B971">
+        <v>1011112080</v>
+      </c>
+    </row>
+    <row r="972" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A972">
+        <v>971</v>
+      </c>
+      <c r="B972">
+        <v>1011112081</v>
+      </c>
+    </row>
+    <row r="973" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A973">
+        <v>972</v>
+      </c>
+      <c r="B973">
+        <v>1011112082</v>
+      </c>
+    </row>
+    <row r="974" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A974">
+        <v>973</v>
+      </c>
+      <c r="B974">
+        <v>1011112083</v>
+      </c>
+    </row>
+    <row r="975" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A975">
+        <v>974</v>
+      </c>
+      <c r="B975">
+        <v>1011112084</v>
+      </c>
+    </row>
+    <row r="976" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A976">
+        <v>975</v>
+      </c>
+      <c r="B976">
+        <v>1011112085</v>
+      </c>
+    </row>
+    <row r="977" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A977">
+        <v>976</v>
+      </c>
+      <c r="B977">
+        <v>1011112086</v>
+      </c>
+    </row>
+    <row r="978" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A978">
+        <v>977</v>
+      </c>
+      <c r="B978">
+        <v>1011112087</v>
+      </c>
+    </row>
+    <row r="979" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A979">
+        <v>978</v>
+      </c>
+      <c r="B979">
+        <v>1011112088</v>
+      </c>
+    </row>
+    <row r="980" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A980">
+        <v>979</v>
+      </c>
+      <c r="B980">
+        <v>1011112089</v>
+      </c>
+    </row>
+    <row r="981" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A981">
+        <v>980</v>
+      </c>
+      <c r="B981">
+        <v>1011112090</v>
+      </c>
+    </row>
+    <row r="982" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A982">
+        <v>981</v>
+      </c>
+      <c r="B982">
+        <v>1011112091</v>
+      </c>
+    </row>
+    <row r="983" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A983">
+        <v>982</v>
+      </c>
+      <c r="B983">
+        <v>1011112092</v>
+      </c>
+    </row>
+    <row r="984" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A984">
+        <v>983</v>
+      </c>
+      <c r="B984">
+        <v>1011112093</v>
+      </c>
+    </row>
+    <row r="985" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A985">
+        <v>984</v>
+      </c>
+      <c r="B985">
+        <v>1011112094</v>
+      </c>
+    </row>
+    <row r="986" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A986">
+        <v>985</v>
+      </c>
+      <c r="B986">
+        <v>1011112095</v>
+      </c>
+    </row>
+    <row r="987" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A987">
+        <v>986</v>
+      </c>
+      <c r="B987">
+        <v>1011112096</v>
+      </c>
+    </row>
+    <row r="988" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A988">
+        <v>987</v>
+      </c>
+      <c r="B988">
+        <v>1011112097</v>
+      </c>
+    </row>
+    <row r="989" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A989">
+        <v>988</v>
+      </c>
+      <c r="B989">
+        <v>1011112098</v>
+      </c>
+    </row>
+    <row r="990" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A990">
+        <v>989</v>
+      </c>
+      <c r="B990">
+        <v>1011112099</v>
+      </c>
+    </row>
+    <row r="991" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A991">
+        <v>990</v>
+      </c>
+      <c r="B991">
+        <v>1011112100</v>
+      </c>
+    </row>
+    <row r="992" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A992">
+        <v>991</v>
+      </c>
+      <c r="B992">
+        <v>1011112101</v>
+      </c>
+    </row>
+    <row r="993" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A993">
+        <v>992</v>
+      </c>
+      <c r="B993">
+        <v>1011112102</v>
+      </c>
+    </row>
+    <row r="994" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A994">
+        <v>993</v>
+      </c>
+      <c r="B994">
+        <v>1011112103</v>
+      </c>
+    </row>
+    <row r="995" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A995">
+        <v>994</v>
+      </c>
+      <c r="B995">
+        <v>1011112104</v>
+      </c>
+    </row>
+    <row r="996" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A996">
+        <v>995</v>
+      </c>
+      <c r="B996">
+        <v>1011112105</v>
+      </c>
+    </row>
+    <row r="997" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A997">
+        <v>996</v>
+      </c>
+      <c r="B997">
+        <v>1011112106</v>
+      </c>
+    </row>
+    <row r="998" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A998">
+        <v>997</v>
+      </c>
+      <c r="B998">
+        <v>1011112107</v>
+      </c>
+    </row>
+    <row r="999" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A999">
+        <v>998</v>
+      </c>
+      <c r="B999">
+        <v>1011112108</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1000">
+        <v>999</v>
+      </c>
+      <c r="B1000">
+        <v>1011112109</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1001">
+        <v>1000</v>
+      </c>
+      <c r="B1001">
+        <v>1011112110</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1002">
+        <v>1001</v>
+      </c>
+      <c r="B1002">
+        <v>1011112111</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1003">
+        <v>1002</v>
+      </c>
+      <c r="B1003">
+        <v>1011112112</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1004">
+        <v>1003</v>
+      </c>
+      <c r="B1004">
+        <v>1011112113</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1005">
+        <v>1004</v>
+      </c>
+      <c r="B1005">
+        <v>1011112114</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1006">
+        <v>1005</v>
+      </c>
+      <c r="B1006">
+        <v>1011112115</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1007">
+        <v>1006</v>
+      </c>
+      <c r="B1007">
+        <v>1011112116</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1008">
+        <v>1007</v>
+      </c>
+      <c r="B1008">
+        <v>1011112117</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1009">
+        <v>1008</v>
+      </c>
+      <c r="B1009">
+        <v>1011112118</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1010">
+        <v>1009</v>
+      </c>
+      <c r="B1010">
+        <v>1011112119</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1011">
+        <v>1010</v>
+      </c>
+      <c r="B1011">
+        <v>1011112120</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1012">
+        <v>1011</v>
+      </c>
+      <c r="B1012">
+        <v>1011112121</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1013">
+        <v>1012</v>
+      </c>
+      <c r="B1013">
+        <v>1011112122</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1014">
+        <v>1013</v>
+      </c>
+      <c r="B1014">
+        <v>1011112123</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1015">
+        <v>1014</v>
+      </c>
+      <c r="B1015">
+        <v>1011112124</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1016">
+        <v>1015</v>
+      </c>
+      <c r="B1016">
+        <v>1011112125</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1017">
+        <v>1016</v>
+      </c>
+      <c r="B1017">
+        <v>1011112126</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1018">
+        <v>1017</v>
+      </c>
+      <c r="B1018">
+        <v>1011112127</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1019">
+        <v>1018</v>
+      </c>
+      <c r="B1019">
+        <v>1011112128</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1020">
+        <v>1019</v>
+      </c>
+      <c r="B1020">
+        <v>1011112129</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1021">
+        <v>1020</v>
+      </c>
+      <c r="B1021">
+        <v>1011112130</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1022">
+        <v>1021</v>
+      </c>
+      <c r="B1022">
+        <v>1011112131</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1023">
+        <v>1022</v>
+      </c>
+      <c r="B1023">
+        <v>1011112132</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1024">
+        <v>1023</v>
+      </c>
+      <c r="B1024">
+        <v>1011112133</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1025">
+        <v>1024</v>
+      </c>
+      <c r="B1025">
+        <v>1011112134</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1026">
+        <v>1025</v>
+      </c>
+      <c r="B1026">
+        <v>1011112135</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1027">
+        <v>1026</v>
+      </c>
+      <c r="B1027">
+        <v>1011112136</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1028">
+        <v>1027</v>
+      </c>
+      <c r="B1028">
+        <v>1011112137</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1029">
+        <v>1028</v>
+      </c>
+      <c r="B1029">
+        <v>1011112138</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1030">
+        <v>1029</v>
+      </c>
+      <c r="B1030">
+        <v>1011112139</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1031">
+        <v>1030</v>
+      </c>
+      <c r="B1031">
+        <v>1011112140</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1032">
+        <v>1031</v>
+      </c>
+      <c r="B1032">
+        <v>1011112141</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1033">
+        <v>1032</v>
+      </c>
+      <c r="B1033">
+        <v>1011112142</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1034">
+        <v>1033</v>
+      </c>
+      <c r="B1034">
+        <v>1011112143</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1035">
+        <v>1034</v>
+      </c>
+      <c r="B1035">
+        <v>1011112144</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1036">
+        <v>1035</v>
+      </c>
+      <c r="B1036">
+        <v>1011112145</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1037">
+        <v>1036</v>
+      </c>
+      <c r="B1037">
+        <v>1011112146</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1038">
+        <v>1037</v>
+      </c>
+      <c r="B1038">
+        <v>1011112147</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1039">
+        <v>1038</v>
+      </c>
+      <c r="B1039">
+        <v>1011112148</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1040">
+        <v>1039</v>
+      </c>
+      <c r="B1040">
+        <v>1011112149</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1041">
+        <v>1040</v>
+      </c>
+      <c r="B1041">
+        <v>1011112150</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1042">
+        <v>1041</v>
+      </c>
+      <c r="B1042">
+        <v>1011112151</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1043">
+        <v>1042</v>
+      </c>
+      <c r="B1043">
+        <v>1011112152</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1044">
+        <v>1043</v>
+      </c>
+      <c r="B1044">
+        <v>1011112153</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1045">
+        <v>1044</v>
+      </c>
+      <c r="B1045">
+        <v>1011112154</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1046">
+        <v>1045</v>
+      </c>
+      <c r="B1046">
+        <v>1011112155</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1047">
+        <v>1046</v>
+      </c>
+      <c r="B1047">
+        <v>1011112156</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1048">
+        <v>1047</v>
+      </c>
+      <c r="B1048">
+        <v>1011112157</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1049">
+        <v>1048</v>
+      </c>
+      <c r="B1049">
+        <v>1011112158</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1050">
+        <v>1049</v>
+      </c>
+      <c r="B1050">
+        <v>1011112159</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1051">
+        <v>1050</v>
+      </c>
+      <c r="B1051">
+        <v>1011112160</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1052">
+        <v>1051</v>
+      </c>
+      <c r="B1052">
+        <v>1011112161</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1053">
+        <v>1052</v>
+      </c>
+      <c r="B1053">
+        <v>1011112162</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1054">
+        <v>1053</v>
+      </c>
+      <c r="B1054">
+        <v>1011112163</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1055">
+        <v>1054</v>
+      </c>
+      <c r="B1055">
+        <v>1011112164</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1056">
+        <v>1055</v>
+      </c>
+      <c r="B1056">
+        <v>1011112165</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1057">
+        <v>1056</v>
+      </c>
+      <c r="B1057">
+        <v>1011112166</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1058">
+        <v>1057</v>
+      </c>
+      <c r="B1058">
+        <v>1011112167</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1059">
+        <v>1058</v>
+      </c>
+      <c r="B1059">
+        <v>1011112168</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1060">
+        <v>1059</v>
+      </c>
+      <c r="B1060">
+        <v>1011112169</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1061">
+        <v>1060</v>
+      </c>
+      <c r="B1061">
+        <v>1011112170</v>
       </c>
     </row>
   </sheetData>

--- a/application/file/전화번호.xlsx
+++ b/application/file/전화번호.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\헬라\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285A3F9E-37F4-467C-B9F7-9A6C24EEB116}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF63F96-4B89-4D4E-8F90-1CEF1B2B92B2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="37350" yWindow="3210" windowWidth="19065" windowHeight="11385" xr2:uid="{288EAA05-7E45-449B-8F72-2F12A5F6488A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="1062">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="1107">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3221,6 +3221,141 @@
   </si>
   <si>
     <t>김1060</t>
+  </si>
+  <si>
+    <t>김1061</t>
+  </si>
+  <si>
+    <t>김1062</t>
+  </si>
+  <si>
+    <t>김1063</t>
+  </si>
+  <si>
+    <t>김1064</t>
+  </si>
+  <si>
+    <t>김1065</t>
+  </si>
+  <si>
+    <t>김1066</t>
+  </si>
+  <si>
+    <t>김1067</t>
+  </si>
+  <si>
+    <t>김1068</t>
+  </si>
+  <si>
+    <t>김1069</t>
+  </si>
+  <si>
+    <t>김1070</t>
+  </si>
+  <si>
+    <t>김1071</t>
+  </si>
+  <si>
+    <t>김1072</t>
+  </si>
+  <si>
+    <t>김1073</t>
+  </si>
+  <si>
+    <t>김1074</t>
+  </si>
+  <si>
+    <t>김1075</t>
+  </si>
+  <si>
+    <t>김1076</t>
+  </si>
+  <si>
+    <t>김1077</t>
+  </si>
+  <si>
+    <t>김1078</t>
+  </si>
+  <si>
+    <t>김1079</t>
+  </si>
+  <si>
+    <t>김1080</t>
+  </si>
+  <si>
+    <t>김1081</t>
+  </si>
+  <si>
+    <t>김1082</t>
+  </si>
+  <si>
+    <t>김1083</t>
+  </si>
+  <si>
+    <t>김1084</t>
+  </si>
+  <si>
+    <t>김1085</t>
+  </si>
+  <si>
+    <t>김1086</t>
+  </si>
+  <si>
+    <t>김1087</t>
+  </si>
+  <si>
+    <t>김1088</t>
+  </si>
+  <si>
+    <t>김1089</t>
+  </si>
+  <si>
+    <t>김1090</t>
+  </si>
+  <si>
+    <t>김1091</t>
+  </si>
+  <si>
+    <t>김1092</t>
+  </si>
+  <si>
+    <t>김1093</t>
+  </si>
+  <si>
+    <t>김1094</t>
+  </si>
+  <si>
+    <t>김1095</t>
+  </si>
+  <si>
+    <t>김1096</t>
+  </si>
+  <si>
+    <t>김1097</t>
+  </si>
+  <si>
+    <t>김1098</t>
+  </si>
+  <si>
+    <t>김1099</t>
+  </si>
+  <si>
+    <t>김1100</t>
+  </si>
+  <si>
+    <t>김1101</t>
+  </si>
+  <si>
+    <t>김1102</t>
+  </si>
+  <si>
+    <t>김1103</t>
+  </si>
+  <si>
+    <t>김1104</t>
+  </si>
+  <si>
+    <t>김1105</t>
   </si>
 </sst>
 </file>
@@ -3587,10 +3722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95263A43-4831-48B8-A29D-3FEAAFD8761D}">
-  <dimension ref="A1:B1061"/>
+  <dimension ref="A1:B1106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1042" workbookViewId="0">
-      <selection activeCell="C1057" sqref="C1057"/>
+    <sheetView tabSelected="1" topLeftCell="A1099" workbookViewId="0">
+      <selection activeCell="A1101" sqref="A1101:B1106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12087,6 +12222,366 @@
         <v>1011112170</v>
       </c>
     </row>
+    <row r="1062" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1062" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B1062">
+        <v>1011112171</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1063" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B1063">
+        <v>1011112172</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1064" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B1064">
+        <v>1011112173</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1065" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B1065">
+        <v>1011112174</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1066" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B1066">
+        <v>1011112175</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1067" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B1067">
+        <v>1011112176</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1068" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B1068">
+        <v>1011112177</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1069" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B1069">
+        <v>1011112178</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1070" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B1070">
+        <v>1011112179</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1071" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B1071">
+        <v>1011112180</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1072" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B1072">
+        <v>1011112181</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1073" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B1073">
+        <v>1011112182</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1074" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B1074">
+        <v>1011112183</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1075" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B1075">
+        <v>1011112184</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1076" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1076">
+        <v>1011112185</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1077" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B1077">
+        <v>1011112186</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1078" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B1078">
+        <v>1011112187</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1079" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B1079">
+        <v>1011112188</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1080" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B1080">
+        <v>1011112189</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1081" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B1081">
+        <v>1011112190</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1082" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B1082">
+        <v>1011112191</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1083" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B1083">
+        <v>1011112192</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1084" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B1084">
+        <v>1011112193</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1085" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B1085">
+        <v>1011112194</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1086" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B1086">
+        <v>1011112195</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1087" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B1087">
+        <v>1011112196</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1088" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1088">
+        <v>1011112197</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1089" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B1089">
+        <v>1011112198</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1090" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B1090">
+        <v>1011112199</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1091" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B1091">
+        <v>1011112200</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1092" s="1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B1092">
+        <v>1011112201</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1093" s="1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B1093">
+        <v>1011112202</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1094" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B1094">
+        <v>1011112203</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1095" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B1095">
+        <v>1011112204</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1096" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B1096">
+        <v>1011112205</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1097" s="1" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B1097">
+        <v>1011112206</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1098" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B1098">
+        <v>1011112207</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1099" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B1099">
+        <v>1011112208</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1100" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B1100">
+        <v>1011112209</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1101" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B1101">
+        <v>1011112210</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1102" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B1102">
+        <v>1011112211</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1103" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B1103">
+        <v>1011112212</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1104" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B1104">
+        <v>1011112213</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1105" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B1105">
+        <v>1011112214</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1106" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B1106">
+        <v>1011112215</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
